--- a/excel/timeseriesdecomposition.xlsx
+++ b/excel/timeseriesdecomposition.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP LAPTOP\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27600" windowHeight="14930"/>
+    <workbookView windowWidth="27374" windowHeight="11448"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -40,10 +32,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Sales</t>
+    <t>Month</t>
   </si>
   <si>
-    <t>Month</t>
+    <t>Sales</t>
   </si>
   <si>
     <t>12MA</t>
@@ -55,13 +47,31 @@
     <t>St</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>Scaled St</t>
   </si>
   <si>
     <t>Yt/St</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Forecast prediction</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Squared error</t>
+  </si>
+  <si>
+    <t>Absolute error</t>
+  </si>
+  <si>
+    <t>APE</t>
   </si>
   <si>
     <t>SUMMARY OUTPUT</t>
@@ -88,18 +98,6 @@
     <t>ANOVA</t>
   </si>
   <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -113,6 +111,15 @@
   </si>
   <si>
     <t>Significance F</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Coefficients</t>
@@ -134,6 +141,9 @@
   </si>
   <si>
     <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Intercept</t>
   </si>
   <si>
     <t>SCALE INDEX</t>
@@ -175,28 +185,10 @@
     <t>M12</t>
   </si>
   <si>
-    <t>Forecast prediction</t>
-  </si>
-  <si>
-    <t>Adjustment</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>Squared error</t>
-  </si>
-  <si>
     <t>MSE = 131835.7161</t>
   </si>
   <si>
-    <t>Absolute error</t>
-  </si>
-  <si>
     <t>MAE = 293.9375041</t>
-  </si>
-  <si>
-    <t>APE</t>
   </si>
   <si>
     <t>MAPE = 0.033636548</t>
@@ -205,19 +197,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,26 +217,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -255,52 +577,338 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -349,7 +957,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -384,7 +992,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -558,50 +1166,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J103" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView tabSelected="1" topLeftCell="G94" workbookViewId="0">
+      <selection activeCell="Q114" sqref="Q114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.82" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.54" customWidth="1"/>
+    <col min="7" max="7" width="18.27" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="10" max="10" width="22.1796875" customWidth="1"/>
-    <col min="11" max="11" width="26.1796875" customWidth="1"/>
-    <col min="12" max="12" width="17.6328125" customWidth="1"/>
-    <col min="13" max="13" width="28.54296875" customWidth="1"/>
-    <col min="14" max="14" width="18.81640625" customWidth="1"/>
-    <col min="15" max="15" width="24.90625" customWidth="1"/>
-    <col min="17" max="17" width="21.1796875" customWidth="1"/>
-    <col min="18" max="18" width="20.36328125" customWidth="1"/>
+    <col min="10" max="10" width="22.18" customWidth="1"/>
+    <col min="11" max="11" width="26.18" customWidth="1"/>
+    <col min="12" max="12" width="17.63" customWidth="1"/>
+    <col min="13" max="13" width="28.54" customWidth="1"/>
+    <col min="14" max="14" width="18.82" customWidth="1"/>
+    <col min="15" max="15" width="24.91" customWidth="1"/>
+    <col min="17" max="17" width="21.18" customWidth="1"/>
+    <col min="18" max="18" width="20.36" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -613,34 +1216,34 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>37987</v>
       </c>
@@ -651,41 +1254,41 @@
         <v>5629</v>
       </c>
       <c r="G2">
-        <v>0.76041695462442593</v>
+        <v>0.760416954624426</v>
       </c>
       <c r="H2">
         <f>C2/G2</f>
-        <v>7402.5177447288688</v>
+        <v>7402.51774472887</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <f>$R$21*I2+$R$20</f>
-        <v>7274.0564446741355</v>
+        <f t="shared" ref="J2:J65" si="0">$R$21*I2+$R$20</f>
+        <v>7274.05644467414</v>
       </c>
       <c r="K2">
         <f>J2*G2</f>
-        <v>5531.3158494252848</v>
+        <v>5531.31584942528</v>
       </c>
       <c r="L2">
         <f>C2-K2</f>
-        <v>97.684150574715204</v>
+        <v>97.6841505747152</v>
       </c>
       <c r="M2">
         <f>L2^2</f>
-        <v>9542.1932735036335</v>
+        <v>9542.19327350363</v>
       </c>
       <c r="N2">
         <f>ABS(L2)</f>
-        <v>97.684150574715204</v>
+        <v>97.6841505747152</v>
       </c>
       <c r="O2">
         <f>N2/C2</f>
-        <v>1.7353730782504035E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+        <v>0.017353730782504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>38018</v>
       </c>
@@ -696,41 +1299,41 @@
         <v>5898</v>
       </c>
       <c r="G3">
-        <v>0.83017451578218504</v>
+        <v>0.830174515782185</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="0">C3/G3</f>
-        <v>7104.5302979975759</v>
+        <f t="shared" ref="H3:H66" si="1">C3/G3</f>
+        <v>7104.53029799758</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <f>$R$21*I3+$R$20</f>
-        <v>7302.2491563167687</v>
+        <f t="shared" si="0"/>
+        <v>7302.24915631677</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="1">J3*G3</f>
-        <v>6062.1411574661424</v>
+        <f t="shared" ref="K3:K66" si="2">J3*G3</f>
+        <v>6062.14115746614</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="2">C3-K3</f>
-        <v>-164.14115746614243</v>
+        <f t="shared" ref="L3:L66" si="3">C3-K3</f>
+        <v>-164.141157466142</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="3">L3^2</f>
-        <v>26942.319574324963</v>
+        <f t="shared" ref="M3:M66" si="4">L3^2</f>
+        <v>26942.319574325</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="4">ABS(L3)</f>
-        <v>164.14115746614243</v>
+        <f t="shared" ref="N3:N66" si="5">ABS(L3)</f>
+        <v>164.141157466142</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="5">N3/C3</f>
-        <v>2.7829969051567045E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O3:O66" si="6">N3/C3</f>
+        <v>0.027829969051567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>38047</v>
       </c>
@@ -741,44 +1344,44 @@
         <v>7045</v>
       </c>
       <c r="G4">
-        <v>0.98554121296497021</v>
+        <v>0.98554121296497</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>7148.3565652270754</v>
+        <f t="shared" si="1"/>
+        <v>7148.35656522708</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4">
-        <f>$R$21*I4+$R$20</f>
-        <v>7330.4418679594028</v>
+        <f t="shared" si="0"/>
+        <v>7330.4418679594</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
-        <v>7224.4525701179118</v>
+        <f t="shared" si="2"/>
+        <v>7224.45257011791</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
-        <v>-179.45257011791182</v>
+        <f t="shared" si="3"/>
+        <v>-179.452570117912</v>
       </c>
       <c r="M4">
-        <f t="shared" si="3"/>
-        <v>32203.224921924058</v>
+        <f t="shared" si="4"/>
+        <v>32203.2249219241</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
-        <v>179.45257011791182</v>
+        <f t="shared" si="5"/>
+        <v>179.452570117912</v>
       </c>
       <c r="O4">
-        <f t="shared" si="5"/>
-        <v>2.5472330747751855E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0254723307477519</v>
       </c>
       <c r="Q4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:15">
       <c r="A5" s="1">
         <v>38078</v>
       </c>
@@ -789,41 +1392,41 @@
         <v>7094</v>
       </c>
       <c r="G5">
-        <v>0.96246611871654009</v>
+        <v>0.96246611871654</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>7370.6490670652729</v>
+        <f t="shared" si="1"/>
+        <v>7370.64906706527</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
-        <f>$R$21*I5+$R$20</f>
-        <v>7358.6345796020369</v>
+        <f t="shared" si="0"/>
+        <v>7358.63457960204</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
-        <v>7082.4364628828907</v>
+        <f t="shared" si="2"/>
+        <v>7082.43646288289</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
-        <v>11.563537117109263</v>
+        <f t="shared" si="3"/>
+        <v>11.5635371171093</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
-        <v>133.7153906587636</v>
+        <f t="shared" si="4"/>
+        <v>133.715390658764</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
-        <v>11.563537117109263</v>
+        <f t="shared" si="5"/>
+        <v>11.5635371171093</v>
       </c>
       <c r="O5">
-        <f t="shared" si="5"/>
-        <v>1.630044702158058E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.00163004470215806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>38108</v>
       </c>
@@ -834,45 +1437,45 @@
         <v>7333</v>
       </c>
       <c r="G6">
-        <v>1.0700925220273949</v>
+        <v>1.07009252202739</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>6852.6784825174882</v>
+        <f t="shared" si="1"/>
+        <v>6852.67848251749</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
-        <f>$R$21*I6+$R$20</f>
-        <v>7386.8272912446701</v>
+        <f t="shared" si="0"/>
+        <v>7386.82729124467</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
-        <v>7904.5886458687992</v>
+        <f t="shared" si="2"/>
+        <v>7904.5886458688</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
-        <v>-571.58864586879918</v>
+        <f t="shared" si="3"/>
+        <v>-571.588645868799</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
-        <v>326713.58008612751</v>
+        <f t="shared" si="4"/>
+        <v>326713.580086128</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
-        <v>571.58864586879918</v>
+        <f t="shared" si="5"/>
+        <v>571.588645868799</v>
       </c>
       <c r="O6">
-        <f t="shared" si="5"/>
-        <v>7.7947449320714471E-2</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0779474493207145</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>38139</v>
       </c>
@@ -883,47 +1486,47 @@
         <v>7918</v>
       </c>
       <c r="G7">
-        <v>1.1274807916790446</v>
+        <v>1.12748079167904</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>7022.7360487521146</v>
+        <f t="shared" si="1"/>
+        <v>7022.73604875211</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7">
-        <f>$R$21*I7+$R$20</f>
-        <v>7415.0200028873041</v>
+        <f t="shared" si="0"/>
+        <v>7415.0200028873</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8360.29262317133</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
-        <v>-442.29262317132998</v>
+        <f t="shared" si="3"/>
+        <v>-442.29262317133</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
-        <v>195622.7645117761</v>
+        <f t="shared" si="4"/>
+        <v>195622.764511776</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
-        <v>442.29262317132998</v>
+        <f t="shared" si="5"/>
+        <v>442.29262317133</v>
       </c>
       <c r="O7">
-        <f t="shared" si="5"/>
-        <v>5.5859134020122506E-2</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.92317047403706931</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0558591340201225</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.923170474037069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>38169</v>
       </c>
@@ -935,58 +1538,58 @@
       </c>
       <c r="D8">
         <f>(C2+C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13)/12</f>
-        <v>7243.166666666667</v>
+        <v>7243.16666666667</v>
       </c>
       <c r="E8">
         <f>(D8+D9)/2</f>
-        <v>7240.166666666667</v>
+        <v>7240.16666666667</v>
       </c>
       <c r="F8">
         <f>(C8/E8)</f>
-        <v>1.0067447802766971</v>
+        <v>1.0067447802767</v>
       </c>
       <c r="G8">
-        <v>0.9869194631008632</v>
+        <v>0.986919463100863</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>7385.6077142285158</v>
+        <f t="shared" si="1"/>
+        <v>7385.60771422852</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8">
-        <f>$R$21*I8+$R$20</f>
-        <v>7443.2127145299382</v>
+        <f t="shared" si="0"/>
+        <v>7443.21271452994</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>7345.8514959694048</v>
+        <f t="shared" si="2"/>
+        <v>7345.8514959694</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
-        <v>-56.851495969404823</v>
+        <f t="shared" si="3"/>
+        <v>-56.8514959694048</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
-        <v>3232.092593959253</v>
+        <f t="shared" si="4"/>
+        <v>3232.09259395925</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
-        <v>56.851495969404823</v>
+        <f t="shared" si="5"/>
+        <v>56.8514959694048</v>
       </c>
       <c r="O8">
-        <f t="shared" si="5"/>
-        <v>7.7996290258478288E-3</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.85224372413382732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.00779962902584783</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.852243724133827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>38200</v>
       </c>
@@ -997,59 +1600,59 @@
         <v>7396</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D72" si="6">(C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14)/12</f>
-        <v>7237.166666666667</v>
+        <f t="shared" ref="D9:D72" si="7">(C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14)/12</f>
+        <v>7237.16666666667</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E72" si="7">(D9+D10)/2</f>
-        <v>7251.291666666667</v>
+        <f t="shared" ref="E9:E72" si="8">(D9+D10)/2</f>
+        <v>7251.29166666667</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F72" si="8">(C9/E9)</f>
-        <v>1.0199562146973815</v>
+        <f t="shared" ref="F9:F72" si="9">(C9/E9)</f>
+        <v>1.01995621469738</v>
       </c>
       <c r="G9">
-        <v>1.0505245770409877</v>
+        <v>1.05052457704099</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>7040.2922136598763</v>
+        <f t="shared" si="1"/>
+        <v>7040.29221365988</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9">
-        <f>$R$21*I9+$R$20</f>
-        <v>7471.4054261725723</v>
+        <f t="shared" si="0"/>
+        <v>7471.40542617257</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
-        <v>7848.8950252316818</v>
+        <f t="shared" si="2"/>
+        <v>7848.89502523168</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
-        <v>-452.89502523168176</v>
+        <f t="shared" si="3"/>
+        <v>-452.895025231682</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
-        <v>205113.90387960564</v>
+        <f t="shared" si="4"/>
+        <v>205113.903879606</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
-        <v>452.89502523168176</v>
+        <f t="shared" si="5"/>
+        <v>452.895025231682</v>
       </c>
       <c r="O9">
-        <f t="shared" si="5"/>
-        <v>6.1235130507258213E-2</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.85084979700301433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0612351305072582</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.850849797003014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>38231</v>
       </c>
@@ -1060,59 +1663,59 @@
         <v>7259</v>
       </c>
       <c r="D10">
-        <f t="shared" si="6"/>
-        <v>7265.416666666667</v>
+        <f t="shared" si="7"/>
+        <v>7265.41666666667</v>
       </c>
       <c r="E10">
-        <f t="shared" si="7"/>
-        <v>7293.666666666667</v>
+        <f t="shared" si="8"/>
+        <v>7293.66666666667</v>
       </c>
       <c r="F10">
-        <f t="shared" si="8"/>
-        <v>0.99524701796078785</v>
+        <f t="shared" si="9"/>
+        <v>0.995247017960788</v>
       </c>
       <c r="G10">
-        <v>0.99523185006811066</v>
+        <v>0.995231850068111</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>7293.7778262454285</v>
+        <f t="shared" si="1"/>
+        <v>7293.77782624543</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10">
-        <f>$R$21*I10+$R$20</f>
-        <v>7499.5981378152055</v>
+        <f t="shared" si="0"/>
+        <v>7499.59813781521</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>7463.8389294651843</v>
+        <f t="shared" si="2"/>
+        <v>7463.83892946518</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
-        <v>-204.83892946518426</v>
+        <f t="shared" si="3"/>
+        <v>-204.838929465184</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
-        <v>41958.987024442737</v>
+        <f t="shared" si="4"/>
+        <v>41958.9870244427</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
-        <v>204.83892946518426</v>
+        <f t="shared" si="5"/>
+        <v>204.838929465184</v>
       </c>
       <c r="O10">
-        <f t="shared" si="5"/>
-        <v>2.8218615438102255E-2</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="2">
-        <v>369.40381097360478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0.0282186154381023</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="3">
+        <v>369.403810973605</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:18">
       <c r="A11" s="1">
         <v>38261</v>
       </c>
@@ -1123,59 +1726,59 @@
         <v>7268</v>
       </c>
       <c r="D11">
-        <f t="shared" si="6"/>
-        <v>7321.916666666667</v>
+        <f t="shared" si="7"/>
+        <v>7321.91666666667</v>
       </c>
       <c r="E11">
-        <f t="shared" si="7"/>
-        <v>7328.916666666667</v>
+        <f t="shared" si="8"/>
+        <v>7328.91666666667</v>
       </c>
       <c r="F11">
-        <f t="shared" si="8"/>
-        <v>0.99168817583317226</v>
+        <f t="shared" si="9"/>
+        <v>0.991688175833172</v>
       </c>
       <c r="G11">
-        <v>1.0236210272722996</v>
+        <v>1.0236210272723</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>7100.2839980411964</v>
+        <f t="shared" si="1"/>
+        <v>7100.2839980412</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11">
-        <f>$R$21*I11+$R$20</f>
-        <v>7527.7908494578396</v>
+        <f t="shared" si="0"/>
+        <v>7527.79084945784</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
-        <v>7705.6050024130509</v>
+        <f t="shared" si="2"/>
+        <v>7705.60500241305</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>-437.6050024130509</v>
+        <f t="shared" si="3"/>
+        <v>-437.605002413051</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
-        <v>191498.13813692628</v>
+        <f t="shared" si="4"/>
+        <v>191498.138136926</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
-        <v>437.6050024130509</v>
+        <f t="shared" si="5"/>
+        <v>437.605002413051</v>
       </c>
       <c r="O11">
-        <f t="shared" si="5"/>
-        <v>6.0209824217535894E-2</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="3">
+        <f t="shared" si="6"/>
+        <v>0.0602098242175359</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="4">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>38292</v>
       </c>
@@ -1186,53 +1789,53 @@
         <v>7731</v>
       </c>
       <c r="D12">
-        <f t="shared" si="6"/>
-        <v>7335.916666666667</v>
+        <f t="shared" si="7"/>
+        <v>7335.91666666667</v>
       </c>
       <c r="E12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7373.75</v>
       </c>
       <c r="F12">
-        <f t="shared" si="8"/>
-        <v>1.0484488896423123</v>
+        <f t="shared" si="9"/>
+        <v>1.04844888964231</v>
       </c>
       <c r="G12">
-        <v>1.0369421162037697</v>
+        <v>1.03694211620377</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>7455.5752719381098</v>
+        <f t="shared" si="1"/>
+        <v>7455.57527193811</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12">
-        <f>$R$21*I12+$R$20</f>
-        <v>7555.9835611004737</v>
+        <f t="shared" si="0"/>
+        <v>7555.98356110047</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
-        <v>7835.1175838484214</v>
+        <f t="shared" si="2"/>
+        <v>7835.11758384842</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
-        <v>-104.11758384842142</v>
+        <f t="shared" si="3"/>
+        <v>-104.117583848421</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
-        <v>10840.471266433065</v>
+        <f t="shared" si="4"/>
+        <v>10840.4712664331</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
-        <v>104.11758384842142</v>
+        <f t="shared" si="5"/>
+        <v>104.117583848421</v>
       </c>
       <c r="O12">
-        <f t="shared" si="5"/>
-        <v>1.3467544153204168E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0.0134675441532042</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:17">
       <c r="A13" s="1">
         <v>38322</v>
       </c>
@@ -1243,56 +1846,56 @@
         <v>9058</v>
       </c>
       <c r="D13">
-        <f t="shared" si="6"/>
-        <v>7411.583333333333</v>
+        <f t="shared" si="7"/>
+        <v>7411.58333333333</v>
       </c>
       <c r="E13">
-        <f t="shared" si="7"/>
-        <v>7446.5416666666661</v>
+        <f t="shared" si="8"/>
+        <v>7446.54166666667</v>
       </c>
       <c r="F13">
-        <f t="shared" si="8"/>
-        <v>1.2164035877952295</v>
+        <f t="shared" si="9"/>
+        <v>1.21640358779523</v>
       </c>
       <c r="G13">
-        <v>1.170588850519408</v>
+        <v>1.17058885051941</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>7737.9858829005834</v>
+        <f t="shared" si="1"/>
+        <v>7737.98588290058</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13">
-        <f>$R$21*I13+$R$20</f>
-        <v>7584.1762727431069</v>
+        <f t="shared" si="0"/>
+        <v>7584.17627274311</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
-        <v>8877.9521852469206</v>
+        <f t="shared" si="2"/>
+        <v>8877.95218524692</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
-        <v>180.04781475307936</v>
+        <f t="shared" si="3"/>
+        <v>180.047814753079</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
-        <v>32417.215597359183</v>
+        <f t="shared" si="4"/>
+        <v>32417.2155973592</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
-        <v>180.04781475307936</v>
+        <f t="shared" si="5"/>
+        <v>180.047814753079</v>
       </c>
       <c r="O13">
-        <f t="shared" si="5"/>
-        <v>1.987721514165151E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0198772151416515</v>
       </c>
       <c r="Q13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>38353</v>
       </c>
@@ -1303,69 +1906,69 @@
         <v>5557</v>
       </c>
       <c r="D14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7481.5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7484.125</v>
       </c>
       <c r="F14">
-        <f t="shared" si="8"/>
-        <v>0.74250496885073403</v>
+        <f t="shared" si="9"/>
+        <v>0.742504968850734</v>
       </c>
       <c r="G14">
-        <v>0.76041695462442593</v>
+        <v>0.760416954624426</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>7307.8328490776912</v>
+        <f t="shared" si="1"/>
+        <v>7307.83284907769</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14">
-        <f>$R$21*I14+$R$20</f>
-        <v>7612.368984385741</v>
+        <f t="shared" si="0"/>
+        <v>7612.36898438574</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
-        <v>5788.5744405840396</v>
+        <f t="shared" si="2"/>
+        <v>5788.57444058404</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
-        <v>-231.57444058403962</v>
+        <f t="shared" si="3"/>
+        <v>-231.57444058404</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
-        <v>53626.721531810894</v>
+        <f t="shared" si="4"/>
+        <v>53626.7215318109</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
-        <v>231.57444058403962</v>
+        <f t="shared" si="5"/>
+        <v>231.57444058404</v>
       </c>
       <c r="O14">
-        <f t="shared" si="5"/>
-        <v>4.1672564438373152E-2</v>
-      </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T14" s="4" t="s">
+        <f t="shared" si="6"/>
+        <v>0.0416725644383732</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="S14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="T14" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>38384</v>
       </c>
@@ -1376,71 +1979,71 @@
         <v>6237</v>
       </c>
       <c r="D15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7486.75</v>
       </c>
       <c r="E15">
-        <f t="shared" si="7"/>
-        <v>7532.5833333333339</v>
+        <f t="shared" si="8"/>
+        <v>7532.58333333333</v>
       </c>
       <c r="F15">
-        <f t="shared" si="8"/>
-        <v>0.82800278788817461</v>
+        <f t="shared" si="9"/>
+        <v>0.828002787888175</v>
       </c>
       <c r="G15">
-        <v>0.83017451578218504</v>
+        <v>0.830174515782185</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>7512.8781737217496</v>
+        <f t="shared" si="1"/>
+        <v>7512.87817372175</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15">
-        <f>$R$21*I15+$R$20</f>
-        <v>7640.5616960283751</v>
+        <f t="shared" si="0"/>
+        <v>7640.56169602838</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
-        <v>6342.9996063042672</v>
+        <f t="shared" si="2"/>
+        <v>6342.99960630427</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
-        <v>-105.99960630426722</v>
+        <f t="shared" si="3"/>
+        <v>-105.999606304267</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
-        <v>11235.916536659646</v>
+        <f t="shared" si="4"/>
+        <v>11235.9165366596</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
-        <v>105.99960630426722</v>
+        <f t="shared" si="5"/>
+        <v>105.999606304267</v>
       </c>
       <c r="O15">
-        <f t="shared" si="5"/>
-        <v>1.6995287206071383E-2</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R15" s="2">
+        <f t="shared" si="6"/>
+        <v>0.0169952872060714</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="3">
         <v>1</v>
       </c>
-      <c r="S15" s="2">
-        <v>83430814.568631321</v>
-      </c>
-      <c r="T15" s="2">
-        <v>83430814.568631321</v>
-      </c>
-      <c r="U15" s="2">
-        <v>611.39761562485069</v>
-      </c>
-      <c r="V15" s="2">
-        <v>8.0950796424665008E-46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S15" s="3">
+        <v>83430814.5686313</v>
+      </c>
+      <c r="T15" s="3">
+        <v>83430814.5686313</v>
+      </c>
+      <c r="U15" s="3">
+        <v>611.397615624851</v>
+      </c>
+      <c r="V15" s="3">
+        <v>8.0950796424665e-46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>38412</v>
       </c>
@@ -1451,67 +2054,67 @@
         <v>7723</v>
       </c>
       <c r="D16">
-        <f t="shared" si="6"/>
-        <v>7578.416666666667</v>
+        <f t="shared" si="7"/>
+        <v>7578.41666666667</v>
       </c>
       <c r="E16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7598.5</v>
       </c>
       <c r="F16">
-        <f t="shared" si="8"/>
-        <v>1.0163848127919983</v>
+        <f t="shared" si="9"/>
+        <v>1.016384812792</v>
       </c>
       <c r="G16">
-        <v>0.98554121296497021</v>
+        <v>0.98554121296497</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>7836.3034426186941</v>
+        <f t="shared" si="1"/>
+        <v>7836.30344261869</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16">
-        <f>$R$21*I16+$R$20</f>
-        <v>7668.7544076710092</v>
+        <f t="shared" si="0"/>
+        <v>7668.75440767101</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
-        <v>7557.8735208665485</v>
+        <f t="shared" si="2"/>
+        <v>7557.87352086655</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
-        <v>165.12647913345154</v>
+        <f t="shared" si="3"/>
+        <v>165.126479133452</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
-        <v>27266.754111010207</v>
+        <f t="shared" si="4"/>
+        <v>27266.7541110102</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
-        <v>165.12647913345154</v>
+        <f t="shared" si="5"/>
+        <v>165.126479133452</v>
       </c>
       <c r="O16">
-        <f t="shared" si="5"/>
-        <v>2.1381131572374923E-2</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16" s="2">
+        <f t="shared" si="6"/>
+        <v>0.0213811315723749</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="3">
         <v>106</v>
       </c>
-      <c r="S16" s="2">
-        <v>14464672.60955321</v>
-      </c>
-      <c r="T16" s="2">
-        <v>136459.17556182275</v>
-      </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S16" s="3">
+        <v>14464672.6095532</v>
+      </c>
+      <c r="T16" s="3">
+        <v>136459.175561823</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" ht="15" spans="1:22">
       <c r="A17" s="1">
         <v>38443</v>
       </c>
@@ -1522,65 +2125,65 @@
         <v>7262</v>
       </c>
       <c r="D17">
-        <f t="shared" si="6"/>
-        <v>7618.583333333333</v>
+        <f t="shared" si="7"/>
+        <v>7618.58333333333</v>
       </c>
       <c r="E17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7637</v>
       </c>
       <c r="F17">
-        <f t="shared" si="8"/>
-        <v>0.95089694906376854</v>
+        <f t="shared" si="9"/>
+        <v>0.950896949063769</v>
       </c>
       <c r="G17">
-        <v>0.96246611871654009</v>
+        <v>0.96246611871654</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>7545.2006660597699</v>
+        <f t="shared" si="1"/>
+        <v>7545.20066605977</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17">
-        <f>$R$21*I17+$R$20</f>
-        <v>7696.9471193136424</v>
+        <f t="shared" si="0"/>
+        <v>7696.94711931364</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
-        <v>7408.0508198922553</v>
+        <f t="shared" si="2"/>
+        <v>7408.05081989226</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
-        <v>-146.05081989225528</v>
+        <f t="shared" si="3"/>
+        <v>-146.050819892255</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
-        <v>21330.841991199988</v>
+        <f t="shared" si="4"/>
+        <v>21330.8419912</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
-        <v>146.05081989225528</v>
+        <f t="shared" si="5"/>
+        <v>146.050819892255</v>
       </c>
       <c r="O17">
-        <f t="shared" si="5"/>
-        <v>2.01116524225083E-2</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="3">
+        <f t="shared" si="6"/>
+        <v>0.0201116524225083</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="4">
         <v>107</v>
       </c>
-      <c r="S17" s="3">
-        <v>97895487.178184539</v>
-      </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S17" s="4">
+        <v>97895487.1781845</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" ht="15" spans="1:15">
       <c r="A18" s="1">
         <v>38473</v>
       </c>
@@ -1591,53 +2194,53 @@
         <v>8241</v>
       </c>
       <c r="D18">
-        <f t="shared" si="6"/>
-        <v>7655.416666666667</v>
+        <f t="shared" si="7"/>
+        <v>7655.41666666667</v>
       </c>
       <c r="E18">
-        <f t="shared" si="7"/>
-        <v>7676.916666666667</v>
+        <f t="shared" si="8"/>
+        <v>7676.91666666667</v>
       </c>
       <c r="F18">
-        <f t="shared" si="8"/>
-        <v>1.0734778502654061</v>
+        <f t="shared" si="9"/>
+        <v>1.07347785026541</v>
       </c>
       <c r="G18">
-        <v>1.0700925220273949</v>
+        <v>1.07009252202739</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>7701.203242114635</v>
+        <f t="shared" si="1"/>
+        <v>7701.20324211464</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18">
-        <f>$R$21*I18+$R$20</f>
-        <v>7725.1398309562765</v>
+        <f t="shared" si="0"/>
+        <v>7725.13983095628</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
-        <v>8266.6143647222852</v>
+        <f t="shared" si="2"/>
+        <v>8266.61436472229</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
-        <v>-25.614364722285245</v>
+        <f t="shared" si="3"/>
+        <v>-25.6143647222852</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
-        <v>656.09568012625084</v>
+        <f t="shared" si="4"/>
+        <v>656.095680126251</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
-        <v>25.614364722285245</v>
+        <f t="shared" si="5"/>
+        <v>25.6143647222852</v>
       </c>
       <c r="O18">
-        <f t="shared" si="5"/>
-        <v>3.1081622038933677E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.00310816220389337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>38504</v>
       </c>
@@ -1648,78 +2251,78 @@
         <v>8757</v>
       </c>
       <c r="D19">
-        <f t="shared" si="6"/>
-        <v>7698.416666666667</v>
+        <f t="shared" si="7"/>
+        <v>7698.41666666667</v>
       </c>
       <c r="E19">
-        <f t="shared" si="7"/>
-        <v>7691.916666666667</v>
+        <f t="shared" si="8"/>
+        <v>7691.91666666667</v>
       </c>
       <c r="F19">
-        <f t="shared" si="8"/>
-        <v>1.1384678721168326</v>
+        <f t="shared" si="9"/>
+        <v>1.13846787211683</v>
       </c>
       <c r="G19">
-        <v>1.1274807916790446</v>
+        <v>1.12748079167904</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7766.87289453426</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19">
-        <f>$R$21*I19+$R$20</f>
-        <v>7753.3325425989105</v>
+        <f t="shared" si="0"/>
+        <v>7753.33254259891</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8741.73351328032</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
-        <v>15.266486719679961</v>
+        <f t="shared" si="3"/>
+        <v>15.26648671968</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
-        <v>233.06561676216461</v>
+        <f t="shared" si="4"/>
+        <v>233.065616762165</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
-        <v>15.266486719679961</v>
+        <f t="shared" si="5"/>
+        <v>15.26648671968</v>
       </c>
       <c r="O19">
-        <f t="shared" si="5"/>
-        <v>1.7433466620623457E-3</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X19" s="4" t="s">
+        <f t="shared" si="6"/>
+        <v>0.00174334666206235</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y19" s="4" t="s">
+      <c r="S19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>38534</v>
       </c>
@@ -1730,80 +2333,80 @@
         <v>7352</v>
       </c>
       <c r="D20">
-        <f t="shared" si="6"/>
-        <v>7685.416666666667</v>
+        <f t="shared" si="7"/>
+        <v>7685.41666666667</v>
       </c>
       <c r="E20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7706.625</v>
       </c>
       <c r="F20">
-        <f t="shared" si="8"/>
-        <v>0.95398439654193634</v>
+        <f t="shared" si="9"/>
+        <v>0.953984396541936</v>
       </c>
       <c r="G20">
-        <v>0.9869194631008632</v>
+        <v>0.986919463100863</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>7449.4427102494228</v>
+        <f t="shared" si="1"/>
+        <v>7449.44271024942</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20">
-        <f>$R$21*I20+$R$20</f>
-        <v>7781.5252542415437</v>
+        <f t="shared" si="0"/>
+        <v>7781.52525424154</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
-        <v>7679.738726021872</v>
+        <f t="shared" si="2"/>
+        <v>7679.73872602187</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
-        <v>-327.73872602187203</v>
+        <f t="shared" si="3"/>
+        <v>-327.738726021872</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
-        <v>107412.6725344397</v>
+        <f t="shared" si="4"/>
+        <v>107412.67253444</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
-        <v>327.73872602187203</v>
+        <f t="shared" si="5"/>
+        <v>327.738726021872</v>
       </c>
       <c r="O20">
-        <f t="shared" si="5"/>
-        <v>4.4578172745085964E-2</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="2">
-        <v>7245.8637330315014</v>
-      </c>
-      <c r="S20" s="2">
-        <v>71.588369285665976</v>
-      </c>
-      <c r="T20" s="2">
-        <v>101.21565563419432</v>
-      </c>
-      <c r="U20" s="2">
-        <v>2.7445720512192223E-107</v>
-      </c>
-      <c r="V20" s="2">
-        <v>7103.9328281114831</v>
-      </c>
-      <c r="W20" s="2">
-        <v>7387.7946379515197</v>
-      </c>
-      <c r="X20" s="2">
-        <v>7103.9328281114831</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>7387.7946379515197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0.044578172745086</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="3">
+        <v>7245.8637330315</v>
+      </c>
+      <c r="S20" s="3">
+        <v>71.588369285666</v>
+      </c>
+      <c r="T20" s="3">
+        <v>101.215655634194</v>
+      </c>
+      <c r="U20" s="3">
+        <v>2.74457205121922e-107</v>
+      </c>
+      <c r="V20" s="3">
+        <v>7103.93282811148</v>
+      </c>
+      <c r="W20" s="3">
+        <v>7387.79463795152</v>
+      </c>
+      <c r="X20" s="3">
+        <v>7103.93282811148</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>7387.79463795152</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:25">
       <c r="A21" s="1">
         <v>38565</v>
       </c>
@@ -1814,80 +2417,80 @@
         <v>8496</v>
       </c>
       <c r="D21">
-        <f t="shared" si="6"/>
-        <v>7727.833333333333</v>
+        <f t="shared" si="7"/>
+        <v>7727.83333333333</v>
       </c>
       <c r="E21">
-        <f t="shared" si="7"/>
-        <v>7742.5416666666661</v>
+        <f t="shared" si="8"/>
+        <v>7742.54166666667</v>
       </c>
       <c r="F21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.09731408183144</v>
       </c>
       <c r="G21">
-        <v>1.0505245770409877</v>
+        <v>1.05052457704099</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>8087.3881351073969</v>
+        <f t="shared" si="1"/>
+        <v>8087.3881351074</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21">
-        <f>$R$21*I21+$R$20</f>
-        <v>7809.7179658841778</v>
+        <f t="shared" si="0"/>
+        <v>7809.71796588418</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
-        <v>8204.300662919879</v>
+        <f t="shared" si="2"/>
+        <v>8204.30066291988</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
-        <v>291.69933708012104</v>
+        <f t="shared" si="3"/>
+        <v>291.699337080121</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
-        <v>85088.503252982075</v>
+        <f t="shared" si="4"/>
+        <v>85088.5032529821</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
-        <v>291.69933708012104</v>
+        <f t="shared" si="5"/>
+        <v>291.699337080121</v>
       </c>
       <c r="O21">
-        <f t="shared" si="5"/>
-        <v>3.4333726115833456E-2</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="3">
-        <v>28.192711642633821</v>
-      </c>
-      <c r="S21" s="3">
-        <v>1.1401840963063703</v>
-      </c>
-      <c r="T21" s="3">
-        <v>24.726455783731936</v>
-      </c>
-      <c r="U21" s="3">
-        <v>8.0950796424665008E-46</v>
-      </c>
-      <c r="V21" s="3">
-        <v>25.932185775388241</v>
-      </c>
-      <c r="W21" s="3">
-        <v>30.453237509879401</v>
-      </c>
-      <c r="X21" s="3">
-        <v>25.932185775388241</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>30.453237509879401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0343337261158335</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="4">
+        <v>28.1927116426338</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1.14018409630637</v>
+      </c>
+      <c r="T21" s="4">
+        <v>24.7264557837319</v>
+      </c>
+      <c r="U21" s="4">
+        <v>8.0950796424665e-46</v>
+      </c>
+      <c r="V21" s="4">
+        <v>25.9321857753882</v>
+      </c>
+      <c r="W21" s="4">
+        <v>30.4532375098794</v>
+      </c>
+      <c r="X21" s="4">
+        <v>25.9321857753882</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>30.4532375098794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>38596</v>
       </c>
@@ -1898,53 +2501,53 @@
         <v>7741</v>
       </c>
       <c r="D22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7757.25</v>
       </c>
       <c r="E22">
-        <f t="shared" si="7"/>
-        <v>7765.5833333333339</v>
+        <f t="shared" si="8"/>
+        <v>7765.58333333333</v>
       </c>
       <c r="F22">
-        <f t="shared" si="8"/>
-        <v>0.99683432238402347</v>
+        <f t="shared" si="9"/>
+        <v>0.996834322384023</v>
       </c>
       <c r="G22">
-        <v>0.99523185006811066</v>
+        <v>0.995231850068111</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
-        <v>7778.0870854065106</v>
+        <f t="shared" si="1"/>
+        <v>7778.08708540651</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22">
-        <f>$R$21*I22+$R$20</f>
-        <v>7837.9106775268119</v>
+        <f t="shared" si="0"/>
+        <v>7837.91067752681</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
-        <v>7800.5383442636075</v>
+        <f t="shared" si="2"/>
+        <v>7800.53834426361</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
-        <v>-59.538344263607542</v>
+        <f t="shared" si="3"/>
+        <v>-59.5383442636075</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
-        <v>3544.8144376518489</v>
+        <f t="shared" si="4"/>
+        <v>3544.81443765185</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
-        <v>59.538344263607542</v>
+        <f t="shared" si="5"/>
+        <v>59.5383442636075</v>
       </c>
       <c r="O22">
-        <f t="shared" si="5"/>
-        <v>7.691298832658254E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.00769129883265825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>38626</v>
       </c>
@@ -1955,53 +2558,53 @@
         <v>7710</v>
       </c>
       <c r="D23">
-        <f t="shared" si="6"/>
-        <v>7773.916666666667</v>
+        <f t="shared" si="7"/>
+        <v>7773.91666666667</v>
       </c>
       <c r="E23">
-        <f t="shared" si="7"/>
-        <v>7776.9583333333339</v>
+        <f t="shared" si="8"/>
+        <v>7776.95833333333</v>
       </c>
       <c r="F23">
-        <f t="shared" si="8"/>
-        <v>0.99139016432088378</v>
+        <f t="shared" si="9"/>
+        <v>0.991390164320884</v>
       </c>
       <c r="G23">
-        <v>1.0236210272722996</v>
+        <v>1.0236210272723</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
-        <v>7532.0844283018196</v>
+        <f t="shared" si="1"/>
+        <v>7532.08442830182</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23">
-        <f>$R$21*I23+$R$20</f>
-        <v>7866.1033891694451</v>
+        <f t="shared" si="0"/>
+        <v>7866.10338916945</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
-        <v>8051.9088318517452</v>
+        <f t="shared" si="2"/>
+        <v>8051.90883185175</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
-        <v>-341.90883185174516</v>
+        <f t="shared" si="3"/>
+        <v>-341.908831851745</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
-        <v>116901.64929822495</v>
+        <f t="shared" si="4"/>
+        <v>116901.649298225</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
-        <v>341.90883185174516</v>
+        <f t="shared" si="5"/>
+        <v>341.908831851745</v>
       </c>
       <c r="O23">
-        <f t="shared" si="5"/>
-        <v>4.4346151991147234E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0443461519911472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>38657</v>
       </c>
@@ -2012,53 +2615,53 @@
         <v>8247</v>
       </c>
       <c r="D24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7780</v>
       </c>
       <c r="E24">
-        <f t="shared" si="7"/>
-        <v>7805.0833333333339</v>
+        <f t="shared" si="8"/>
+        <v>7805.08333333333</v>
       </c>
       <c r="F24">
-        <f t="shared" si="8"/>
-        <v>1.0566190837168083</v>
+        <f t="shared" si="9"/>
+        <v>1.05661908371681</v>
       </c>
       <c r="G24">
-        <v>1.0369421162037697</v>
+        <v>1.03694211620377</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
-        <v>7953.1922477911776</v>
+        <f t="shared" si="1"/>
+        <v>7953.19224779118</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24">
-        <f>$R$21*I24+$R$20</f>
-        <v>7894.2961008120792</v>
+        <f t="shared" si="0"/>
+        <v>7894.29610081208</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
-        <v>8185.9281047152454</v>
+        <f t="shared" si="2"/>
+        <v>8185.92810471525</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
-        <v>61.071895284754646</v>
+        <f t="shared" si="3"/>
+        <v>61.0718952847546</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
-        <v>3729.7763936720366</v>
+        <f t="shared" si="4"/>
+        <v>3729.77639367204</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
-        <v>61.071895284754646</v>
+        <f t="shared" si="5"/>
+        <v>61.0718952847546</v>
       </c>
       <c r="O24">
-        <f t="shared" si="5"/>
-        <v>7.4053468273014003E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0074053468273014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>38687</v>
       </c>
@@ -2069,58 +2672,58 @@
         <v>8902</v>
       </c>
       <c r="D25">
-        <f t="shared" si="6"/>
-        <v>7830.166666666667</v>
+        <f t="shared" si="7"/>
+        <v>7830.16666666667</v>
       </c>
       <c r="E25">
-        <f t="shared" si="7"/>
-        <v>7853.916666666667</v>
+        <f t="shared" si="8"/>
+        <v>7853.91666666667</v>
       </c>
       <c r="F25">
-        <f t="shared" si="8"/>
-        <v>1.1334472184791027</v>
+        <f t="shared" si="9"/>
+        <v>1.1334472184791</v>
       </c>
       <c r="G25">
-        <v>1.170588850519408</v>
+        <v>1.17058885051941</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>7604.7196212829531</v>
+        <f t="shared" si="1"/>
+        <v>7604.71962128295</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25">
-        <f>$R$21*I25+$R$20</f>
-        <v>7922.4888124547133</v>
+        <f t="shared" si="0"/>
+        <v>7922.48881245471</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
-        <v>9273.977072224232</v>
+        <f t="shared" si="2"/>
+        <v>9273.97707222423</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
-        <v>-371.97707222423196</v>
+        <f t="shared" si="3"/>
+        <v>-371.977072224232</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
-        <v>138366.94226051148</v>
+        <f t="shared" si="4"/>
+        <v>138366.942260511</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
-        <v>371.97707222423196</v>
+        <f t="shared" si="5"/>
+        <v>371.977072224232</v>
       </c>
       <c r="O25">
-        <f t="shared" si="5"/>
-        <v>4.1785786590005834E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0417857865900058</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>38718</v>
       </c>
@@ -2131,62 +2734,62 @@
         <v>6066</v>
       </c>
       <c r="D26">
-        <f t="shared" si="6"/>
-        <v>7877.666666666667</v>
+        <f t="shared" si="7"/>
+        <v>7877.66666666667</v>
       </c>
       <c r="E26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7896</v>
       </c>
       <c r="F26">
-        <f t="shared" si="8"/>
-        <v>0.76823708206686925</v>
+        <f t="shared" si="9"/>
+        <v>0.768237082066869</v>
       </c>
       <c r="G26">
-        <v>0.76041695462442593</v>
+        <v>0.760416954624426</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
-        <v>7977.2024586117104</v>
+        <f t="shared" si="1"/>
+        <v>7977.20245861171</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26">
-        <f>$R$21*I26+$R$20</f>
-        <v>7950.6815240973465</v>
+        <f t="shared" si="0"/>
+        <v>7950.68152409735</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
-        <v>6045.8330317427935</v>
+        <f t="shared" si="2"/>
+        <v>6045.83303174279</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
-        <v>20.166968257206463</v>
+        <f t="shared" si="3"/>
+        <v>20.1669682572065</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
-        <v>406.70660868717306</v>
+        <f t="shared" si="4"/>
+        <v>406.706608687173</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
-        <v>20.166968257206463</v>
+        <f t="shared" si="5"/>
+        <v>20.1669682572065</v>
       </c>
       <c r="O26">
-        <f t="shared" si="5"/>
-        <v>3.3245908765589288E-3</v>
+        <f t="shared" si="6"/>
+        <v>0.00332459087655893</v>
       </c>
       <c r="Q26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R26">
         <v>0.760398566</v>
       </c>
       <c r="S26">
-        <v>0.76041695499999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0.760416955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>38749</v>
       </c>
@@ -2197,62 +2800,62 @@
         <v>6590</v>
       </c>
       <c r="D27">
-        <f t="shared" si="6"/>
-        <v>7914.333333333333</v>
+        <f t="shared" si="7"/>
+        <v>7914.33333333333</v>
       </c>
       <c r="E27">
-        <f t="shared" si="7"/>
-        <v>7941.833333333333</v>
+        <f t="shared" si="8"/>
+        <v>7941.83333333333</v>
       </c>
       <c r="F27">
-        <f t="shared" si="8"/>
-        <v>0.82978321546242473</v>
+        <f t="shared" si="9"/>
+        <v>0.829783215462425</v>
       </c>
       <c r="G27">
-        <v>0.83017451578218504</v>
+        <v>0.830174515782185</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
-        <v>7938.0899735171279</v>
+        <f t="shared" si="1"/>
+        <v>7938.08997351713</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27">
-        <f>$R$21*I27+$R$20</f>
-        <v>7978.8742357399806</v>
+        <f t="shared" si="0"/>
+        <v>7978.87423573998</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
-        <v>6623.8580551423902</v>
+        <f t="shared" si="2"/>
+        <v>6623.85805514239</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
-        <v>-33.858055142390185</v>
+        <f t="shared" si="3"/>
+        <v>-33.8580551423902</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
-        <v>1146.3678980251345</v>
+        <f t="shared" si="4"/>
+        <v>1146.36789802513</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
-        <v>33.858055142390185</v>
+        <f t="shared" si="5"/>
+        <v>33.8580551423902</v>
       </c>
       <c r="O27">
-        <f t="shared" si="5"/>
-        <v>5.1377928895887989E-3</v>
+        <f t="shared" si="6"/>
+        <v>0.0051377928895888</v>
       </c>
       <c r="Q27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R27">
-        <v>0.83015444000000005</v>
+        <v>0.83015444</v>
       </c>
       <c r="S27">
-        <v>0.83017451600000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0.830174516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>38777</v>
       </c>
@@ -2263,62 +2866,62 @@
         <v>7923</v>
       </c>
       <c r="D28">
-        <f t="shared" si="6"/>
-        <v>7969.333333333333</v>
+        <f t="shared" si="7"/>
+        <v>7969.33333333333</v>
       </c>
       <c r="E28">
-        <f t="shared" si="7"/>
-        <v>7981.6666666666661</v>
+        <f t="shared" si="8"/>
+        <v>7981.66666666667</v>
       </c>
       <c r="F28">
-        <f t="shared" si="8"/>
-        <v>0.99264982250991862</v>
+        <f t="shared" si="9"/>
+        <v>0.992649822509919</v>
       </c>
       <c r="G28">
-        <v>0.98554121296497021</v>
+        <v>0.98554121296497</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
-        <v>8039.2376247401162</v>
+        <f t="shared" si="1"/>
+        <v>8039.23762474012</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28">
-        <f>$R$21*I28+$R$20</f>
-        <v>8007.0669473826147</v>
+        <f t="shared" si="0"/>
+        <v>8007.06694738261</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
-        <v>7891.2944716151833</v>
+        <f t="shared" si="2"/>
+        <v>7891.29447161518</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
-        <v>31.705528384816716</v>
+        <f t="shared" si="3"/>
+        <v>31.7055283848167</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
-        <v>1005.2405301604185</v>
+        <f t="shared" si="4"/>
+        <v>1005.24053016042</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
-        <v>31.705528384816716</v>
+        <f t="shared" si="5"/>
+        <v>31.7055283848167</v>
       </c>
       <c r="O28">
-        <f t="shared" si="5"/>
-        <v>4.0017074826223294E-3</v>
+        <f t="shared" si="6"/>
+        <v>0.00400170748262233</v>
       </c>
       <c r="Q28" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R28">
         <v>0.98551738</v>
       </c>
       <c r="S28">
-        <v>0.98554121299999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0.985541213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>38808</v>
       </c>
@@ -2329,62 +2932,62 @@
         <v>7335</v>
       </c>
       <c r="D29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7994</v>
       </c>
       <c r="E29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8032.75</v>
       </c>
       <c r="F29">
-        <f t="shared" si="8"/>
-        <v>0.91313684603653789</v>
+        <f t="shared" si="9"/>
+        <v>0.913136846036538</v>
       </c>
       <c r="G29">
-        <v>0.96246611871654009</v>
+        <v>0.96246611871654</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
-        <v>7621.0474918133314</v>
+        <f t="shared" si="1"/>
+        <v>7621.04749181333</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29">
-        <f>$R$21*I29+$R$20</f>
-        <v>8035.2596590252488</v>
+        <f t="shared" si="0"/>
+        <v>8035.25965902525</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
-        <v>7733.6651769016207</v>
+        <f t="shared" si="2"/>
+        <v>7733.66517690162</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
-        <v>-398.66517690162073</v>
+        <f t="shared" si="3"/>
+        <v>-398.665176901621</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
-        <v>158933.92327400055</v>
+        <f t="shared" si="4"/>
+        <v>158933.923274001</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
-        <v>398.66517690162073</v>
+        <f t="shared" si="5"/>
+        <v>398.665176901621</v>
       </c>
       <c r="O29">
-        <f t="shared" si="5"/>
-        <v>5.435108069551748E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0543510806955175</v>
       </c>
       <c r="Q29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R29">
-        <v>0.96244284400000002</v>
+        <v>0.962442844</v>
       </c>
       <c r="S29">
-        <v>0.96246611900000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0.962466119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>38838</v>
       </c>
@@ -2395,62 +2998,62 @@
         <v>8843</v>
       </c>
       <c r="D30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8071.5</v>
       </c>
       <c r="E30">
-        <f t="shared" si="7"/>
-        <v>8108.2083333333339</v>
+        <f t="shared" si="8"/>
+        <v>8108.20833333333</v>
       </c>
       <c r="F30">
-        <f t="shared" si="8"/>
-        <v>1.0906231853522921</v>
+        <f t="shared" si="9"/>
+        <v>1.09062318535229</v>
       </c>
       <c r="G30">
-        <v>1.0700925220273949</v>
+        <v>1.07009252202739</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
-        <v>8263.7714197330079</v>
+        <f t="shared" si="1"/>
+        <v>8263.77141973301</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30">
-        <f>$R$21*I30+$R$20</f>
-        <v>8063.452370667882</v>
+        <f t="shared" si="0"/>
+        <v>8063.45237066788</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
-        <v>8628.6400835757704</v>
+        <f t="shared" si="2"/>
+        <v>8628.64008357577</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
-        <v>214.3599164242296</v>
+        <f t="shared" si="3"/>
+        <v>214.35991642423</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
-        <v>45950.173769402696</v>
+        <f t="shared" si="4"/>
+        <v>45950.1737694027</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
-        <v>214.3599164242296</v>
+        <f t="shared" si="5"/>
+        <v>214.35991642423</v>
       </c>
       <c r="O30">
-        <f t="shared" si="5"/>
-        <v>2.4240632864890827E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0242406328648908</v>
       </c>
       <c r="Q30" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R30">
         <v>1.070066644</v>
       </c>
       <c r="S30">
-        <v>1.0700925219999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.070092522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>38869</v>
       </c>
@@ -2461,62 +3064,62 @@
         <v>9327</v>
       </c>
       <c r="D31">
-        <f t="shared" si="6"/>
-        <v>8144.916666666667</v>
+        <f t="shared" si="7"/>
+        <v>8144.91666666667</v>
       </c>
       <c r="E31">
-        <f t="shared" si="7"/>
-        <v>8171.7083333333339</v>
+        <f t="shared" si="8"/>
+        <v>8171.70833333333</v>
       </c>
       <c r="F31">
-        <f t="shared" si="8"/>
-        <v>1.141377007051769</v>
+        <f t="shared" si="9"/>
+        <v>1.14137700705177</v>
       </c>
       <c r="G31">
-        <v>1.1274807916790446</v>
+        <v>1.12748079167904</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
-        <v>8272.4247444696866</v>
+        <f t="shared" si="1"/>
+        <v>8272.42474446969</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31">
-        <f>$R$21*I31+$R$20</f>
-        <v>8091.645082310516</v>
+        <f t="shared" si="0"/>
+        <v>8091.64508231052</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
-        <v>9123.1744033893083</v>
+        <f t="shared" si="2"/>
+        <v>9123.17440338931</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
-        <v>203.82559661069172</v>
+        <f t="shared" si="3"/>
+        <v>203.825596610692</v>
       </c>
       <c r="M31">
-        <f t="shared" si="3"/>
-        <v>41544.873833704427</v>
+        <f t="shared" si="4"/>
+        <v>41544.8738337044</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
-        <v>203.82559661069172</v>
+        <f t="shared" si="5"/>
+        <v>203.825596610692</v>
       </c>
       <c r="O31">
-        <f t="shared" si="5"/>
-        <v>2.1853285795077917E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0218532857950779</v>
       </c>
       <c r="Q31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="R31">
         <v>1.127453526</v>
       </c>
       <c r="S31">
-        <v>1.1274807920000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.127480792</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>38899</v>
       </c>
@@ -2527,62 +3130,62 @@
         <v>7792</v>
       </c>
       <c r="D32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8198.5</v>
       </c>
       <c r="E32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8221.875</v>
       </c>
       <c r="F32">
-        <f t="shared" si="8"/>
-        <v>0.94771569745343975</v>
+        <f t="shared" si="9"/>
+        <v>0.94771569745344</v>
       </c>
       <c r="G32">
-        <v>0.9869194631008632</v>
+        <v>0.986919463100863</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
-        <v>7895.2744284906839</v>
+        <f t="shared" si="1"/>
+        <v>7895.27442849068</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32">
-        <f>$R$21*I32+$R$20</f>
-        <v>8119.8377939531501</v>
+        <f t="shared" si="0"/>
+        <v>8119.83779395315</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
-        <v>8013.6259560743401</v>
+        <f t="shared" si="2"/>
+        <v>8013.62595607434</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
-        <v>-221.62595607434014</v>
+        <f t="shared" si="3"/>
+        <v>-221.62595607434</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
-        <v>49118.064405865342</v>
+        <f t="shared" si="4"/>
+        <v>49118.0644058653</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
-        <v>221.62595607434014</v>
+        <f t="shared" si="5"/>
+        <v>221.62595607434</v>
       </c>
       <c r="O32">
-        <f t="shared" si="5"/>
-        <v>2.8442756169704844E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0284427561697048</v>
       </c>
       <c r="Q32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="R32">
-        <v>0.98689559699999996</v>
+        <v>0.986895597</v>
       </c>
       <c r="S32">
         <v>0.986919463</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>38930</v>
       </c>
@@ -2593,62 +3196,62 @@
         <v>9156</v>
       </c>
       <c r="D33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8245.25</v>
       </c>
       <c r="E33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8251.625</v>
       </c>
       <c r="F33">
-        <f t="shared" si="8"/>
-        <v>1.1095996243164226</v>
+        <f t="shared" si="9"/>
+        <v>1.10959962431642</v>
       </c>
       <c r="G33">
-        <v>1.0505245770409877</v>
+        <v>1.05052457704099</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
-        <v>8715.6456879759098</v>
+        <f t="shared" si="1"/>
+        <v>8715.64568797591</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33">
-        <f>$R$21*I33+$R$20</f>
-        <v>8148.0305055957833</v>
+        <f t="shared" si="0"/>
+        <v>8148.03050559578</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
-        <v>8559.7063006080753</v>
+        <f t="shared" si="2"/>
+        <v>8559.70630060808</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
-        <v>596.29369939192475</v>
+        <f t="shared" si="3"/>
+        <v>596.293699391925</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
-        <v>355566.1759345071</v>
+        <f t="shared" si="4"/>
+        <v>355566.175934507</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
-        <v>596.29369939192475</v>
+        <f t="shared" si="5"/>
+        <v>596.293699391925</v>
       </c>
       <c r="O33">
-        <f t="shared" si="5"/>
-        <v>6.5126004739179205E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0651260047391792</v>
       </c>
       <c r="Q33" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R33">
-        <v>1.0504991720000001</v>
+        <v>1.050499172</v>
       </c>
       <c r="S33">
         <v>1.050524577</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>38961</v>
       </c>
@@ -2659,62 +3262,62 @@
         <v>8037</v>
       </c>
       <c r="D34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8258</v>
       </c>
       <c r="E34">
-        <f t="shared" si="7"/>
-        <v>8269.3333333333321</v>
+        <f t="shared" si="8"/>
+        <v>8269.33333333333</v>
       </c>
       <c r="F34">
-        <f t="shared" si="8"/>
-        <v>0.97190422444372793</v>
+        <f t="shared" si="9"/>
+        <v>0.971904224443728</v>
       </c>
       <c r="G34">
-        <v>0.99523185006811066</v>
+        <v>0.995231850068111</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
-        <v>8075.5052196631086</v>
+        <f t="shared" si="1"/>
+        <v>8075.50521966311</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34">
-        <f>$R$21*I34+$R$20</f>
-        <v>8176.2232172384174</v>
+        <f t="shared" si="0"/>
+        <v>8176.22321723842</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
-        <v>8137.2377590620299</v>
+        <f t="shared" si="2"/>
+        <v>8137.23775906203</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
-        <v>-100.23775906202991</v>
+        <f t="shared" si="3"/>
+        <v>-100.23775906203</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
-        <v>10047.608341777559</v>
+        <f t="shared" si="4"/>
+        <v>10047.6083417776</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
-        <v>100.23775906202991</v>
+        <f t="shared" si="5"/>
+        <v>100.23775906203</v>
       </c>
       <c r="O34">
-        <f t="shared" si="5"/>
-        <v>1.2472036712956316E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0124720367129563</v>
       </c>
       <c r="Q34" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="R34">
-        <v>0.99520778300000001</v>
+        <v>0.995207783</v>
       </c>
       <c r="S34">
-        <v>0.99523185000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.99523185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>38991</v>
       </c>
@@ -2725,62 +3328,62 @@
         <v>8640</v>
       </c>
       <c r="D35">
-        <f t="shared" si="6"/>
-        <v>8280.6666666666661</v>
+        <f t="shared" si="7"/>
+        <v>8280.66666666667</v>
       </c>
       <c r="E35">
-        <f t="shared" si="7"/>
-        <v>8301.2083333333321</v>
+        <f t="shared" si="8"/>
+        <v>8301.20833333333</v>
       </c>
       <c r="F35">
-        <f t="shared" si="8"/>
-        <v>1.0408123315380795</v>
+        <f t="shared" si="9"/>
+        <v>1.04081233153808</v>
       </c>
       <c r="G35">
-        <v>1.0236210272722996</v>
+        <v>1.0236210272723</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
-        <v>8440.6237951397816</v>
+        <f t="shared" si="1"/>
+        <v>8440.62379513978</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35">
-        <f>$R$21*I35+$R$20</f>
-        <v>8204.4159288810515</v>
+        <f t="shared" si="0"/>
+        <v>8204.41592888105</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
-        <v>8398.2126612904412</v>
+        <f t="shared" si="2"/>
+        <v>8398.21266129044</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
-        <v>241.78733870955875</v>
+        <f t="shared" si="3"/>
+        <v>241.787338709559</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
-        <v>58461.117160250891</v>
+        <f t="shared" si="4"/>
+        <v>58461.1171602509</v>
       </c>
       <c r="N35">
-        <f t="shared" si="4"/>
-        <v>241.78733870955875</v>
+        <f t="shared" si="5"/>
+        <v>241.787338709559</v>
       </c>
       <c r="O35">
-        <f t="shared" si="5"/>
-        <v>2.7984645683976708E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0279846456839767</v>
       </c>
       <c r="Q35" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R35">
-        <v>1.0235962729999999</v>
+        <v>1.023596273</v>
       </c>
       <c r="S35">
-        <v>1.0236210269999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+        <v>1.023621027</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>39022</v>
       </c>
@@ -2791,62 +3394,62 @@
         <v>9128</v>
       </c>
       <c r="D36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8321.75</v>
       </c>
       <c r="E36">
-        <f t="shared" si="7"/>
-        <v>8352.0416666666679</v>
+        <f t="shared" si="8"/>
+        <v>8352.04166666667</v>
       </c>
       <c r="F36">
-        <f t="shared" si="8"/>
-        <v>1.0929064250757048</v>
+        <f t="shared" si="9"/>
+        <v>1.0929064250757</v>
       </c>
       <c r="G36">
-        <v>1.0369421162037697</v>
+        <v>1.03694211620377</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
-        <v>8802.8057278813958</v>
+        <f t="shared" si="1"/>
+        <v>8802.8057278814</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36">
-        <f>$R$21*I36+$R$20</f>
-        <v>8232.6086405236856</v>
+        <f t="shared" si="0"/>
+        <v>8232.60864052369</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
-        <v>8536.7386255820711</v>
+        <f t="shared" si="2"/>
+        <v>8536.73862558207</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
-        <v>591.26137441792889</v>
+        <f t="shared" si="3"/>
+        <v>591.261374417929</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
-        <v>349590.01287857827</v>
+        <f t="shared" si="4"/>
+        <v>349590.012878578</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
-        <v>591.26137441792889</v>
+        <f t="shared" si="5"/>
+        <v>591.261374417929</v>
       </c>
       <c r="O36">
-        <f t="shared" si="5"/>
-        <v>6.4774471342893172E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0647744713428932</v>
       </c>
       <c r="Q36" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="R36">
-        <v>1.0369170400000001</v>
+        <v>1.03691704</v>
       </c>
       <c r="S36">
-        <v>1.0369421160000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+        <v>1.036942116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>39052</v>
       </c>
@@ -2857,53 +3460,53 @@
         <v>9545</v>
       </c>
       <c r="D37">
-        <f t="shared" si="6"/>
-        <v>8382.3333333333339</v>
+        <f t="shared" si="7"/>
+        <v>8382.33333333333</v>
       </c>
       <c r="E37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8388.875</v>
       </c>
       <c r="F37">
-        <f t="shared" si="8"/>
-        <v>1.1378164533384989</v>
+        <f t="shared" si="9"/>
+        <v>1.1378164533385</v>
       </c>
       <c r="G37">
-        <v>1.170588850519408</v>
+        <v>1.17058885051941</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
-        <v>8154.0158150017742</v>
+        <f t="shared" si="1"/>
+        <v>8154.01581500177</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37">
-        <f>$R$21*I37+$R$20</f>
-        <v>8260.8013521663197</v>
+        <f t="shared" si="0"/>
+        <v>8260.80135216632</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
-        <v>9670.0019592015433</v>
+        <f t="shared" si="2"/>
+        <v>9670.00195920154</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
-        <v>-125.00195920154329</v>
+        <f t="shared" si="3"/>
+        <v>-125.001959201543</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
-        <v>15625.489804224293</v>
+        <f t="shared" si="4"/>
+        <v>15625.4898042243</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
-        <v>125.00195920154329</v>
+        <f t="shared" si="5"/>
+        <v>125.001959201543</v>
       </c>
       <c r="O37">
-        <f t="shared" si="5"/>
-        <v>1.3096066967160114E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0130960669671601</v>
       </c>
       <c r="Q37" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="R37">
         <v>1.170560542</v>
@@ -2912,7 +3515,7 @@
         <v>1.170588851</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>39083</v>
       </c>
@@ -2923,59 +3526,59 @@
         <v>6627</v>
       </c>
       <c r="D38">
-        <f t="shared" si="6"/>
-        <v>8395.4166666666661</v>
+        <f t="shared" si="7"/>
+        <v>8395.41666666667</v>
       </c>
       <c r="E38">
-        <f t="shared" si="7"/>
-        <v>8429.4166666666661</v>
+        <f t="shared" si="8"/>
+        <v>8429.41666666667</v>
       </c>
       <c r="F38">
-        <f t="shared" si="8"/>
-        <v>0.7861753976649235</v>
+        <f t="shared" si="9"/>
+        <v>0.786175397664924</v>
       </c>
       <c r="G38">
-        <v>0.76041695462442593</v>
+        <v>0.760416954624426</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
-        <v>8714.9556038938026</v>
+        <f t="shared" si="1"/>
+        <v>8714.9556038938</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38">
-        <f>$R$21*I38+$R$20</f>
-        <v>8288.994063808952</v>
+        <f t="shared" si="0"/>
+        <v>8288.99406380895</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
-        <v>6303.0916229015475</v>
+        <f t="shared" si="2"/>
+        <v>6303.09162290155</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
-        <v>323.90837709845255</v>
+        <f t="shared" si="3"/>
+        <v>323.908377098453</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
-        <v>104916.63675455334</v>
+        <f t="shared" si="4"/>
+        <v>104916.636754553</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
-        <v>323.90837709845255</v>
+        <f t="shared" si="5"/>
+        <v>323.908377098453</v>
       </c>
       <c r="O38">
-        <f t="shared" si="5"/>
-        <v>4.887707516198167E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0488770751619817</v>
       </c>
       <c r="R38">
-        <v>11.999709810000001</v>
+        <v>11.99970981</v>
       </c>
       <c r="S38">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>39114</v>
       </c>
@@ -2986,59 +3589,59 @@
         <v>6743</v>
       </c>
       <c r="D39">
-        <f t="shared" si="6"/>
-        <v>8463.4166666666661</v>
+        <f t="shared" si="7"/>
+        <v>8463.41666666667</v>
       </c>
       <c r="E39">
-        <f t="shared" si="7"/>
-        <v>8479.5416666666661</v>
+        <f t="shared" si="8"/>
+        <v>8479.54166666667</v>
       </c>
       <c r="F39">
-        <f t="shared" si="8"/>
-        <v>0.79520807433577878</v>
+        <f t="shared" si="9"/>
+        <v>0.795208074335779</v>
       </c>
       <c r="G39">
-        <v>0.83017451578218504</v>
+        <v>0.830174515782185</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
-        <v>8122.3885722952955</v>
+        <f t="shared" si="1"/>
+        <v>8122.3885722953</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39">
-        <f>$R$21*I39+$R$20</f>
-        <v>8317.1867754515861</v>
+        <f t="shared" si="0"/>
+        <v>8317.18677545159</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
-        <v>6904.7165039805132</v>
+        <f t="shared" si="2"/>
+        <v>6904.71650398051</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
-        <v>-161.71650398051315</v>
+        <f t="shared" si="3"/>
+        <v>-161.716503980513</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
-        <v>26152.227659679327</v>
+        <f t="shared" si="4"/>
+        <v>26152.2276596793</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
-        <v>161.71650398051315</v>
+        <f t="shared" si="5"/>
+        <v>161.716503980513</v>
       </c>
       <c r="O39">
-        <f t="shared" si="5"/>
-        <v>2.3982871715929579E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.0239828717159296</v>
       </c>
       <c r="R39">
-        <v>0.99997581700000004</v>
+        <v>0.999975817</v>
       </c>
       <c r="S39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>39142</v>
       </c>
@@ -3049,53 +3652,53 @@
         <v>8195</v>
       </c>
       <c r="D40">
-        <f t="shared" si="6"/>
-        <v>8495.6666666666661</v>
+        <f t="shared" si="7"/>
+        <v>8495.66666666667</v>
       </c>
       <c r="E40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8499.25</v>
       </c>
       <c r="F40">
-        <f t="shared" si="8"/>
-        <v>0.96420272376974436</v>
+        <f t="shared" si="9"/>
+        <v>0.964202723769744</v>
       </c>
       <c r="G40">
-        <v>0.98554121296497021</v>
+        <v>0.98554121296497</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
-        <v>8315.2281124252495</v>
+        <f t="shared" si="1"/>
+        <v>8315.22811242525</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40">
-        <f>$R$21*I40+$R$20</f>
-        <v>8345.3794870942202</v>
+        <f t="shared" si="0"/>
+        <v>8345.37948709422</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
-        <v>8224.715422363819</v>
+        <f t="shared" si="2"/>
+        <v>8224.71542236382</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
-        <v>-29.715422363819016</v>
+        <f t="shared" si="3"/>
+        <v>-29.715422363819</v>
       </c>
       <c r="M40">
-        <f t="shared" si="3"/>
-        <v>883.00632626015533</v>
+        <f t="shared" si="4"/>
+        <v>883.006326260155</v>
       </c>
       <c r="N40">
-        <f t="shared" si="4"/>
-        <v>29.715422363819016</v>
+        <f t="shared" si="5"/>
+        <v>29.715422363819</v>
       </c>
       <c r="O40">
-        <f t="shared" si="5"/>
-        <v>3.6260429974153772E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.00362604299741538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39173</v>
       </c>
@@ -3106,53 +3709,53 @@
         <v>7828</v>
       </c>
       <c r="D41">
-        <f t="shared" si="6"/>
-        <v>8502.8333333333339</v>
+        <f t="shared" si="7"/>
+        <v>8502.83333333333</v>
       </c>
       <c r="E41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8544.875</v>
       </c>
       <c r="F41">
-        <f t="shared" si="8"/>
-        <v>0.91610468263140188</v>
+        <f t="shared" si="9"/>
+        <v>0.916104682631402</v>
       </c>
       <c r="G41">
-        <v>0.96246611871654009</v>
+        <v>0.96246611871654</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
-        <v>8133.2733150531367</v>
+        <f t="shared" si="1"/>
+        <v>8133.27331505314</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41">
-        <f>$R$21*I41+$R$20</f>
-        <v>8373.5721987368543</v>
+        <f t="shared" si="0"/>
+        <v>8373.57219873685</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
-        <v>8059.2795339109844</v>
+        <f t="shared" si="2"/>
+        <v>8059.27953391098</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
-        <v>-231.27953391098436</v>
+        <f t="shared" si="3"/>
+        <v>-231.279533910984</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
-        <v>53490.222806082165</v>
+        <f t="shared" si="4"/>
+        <v>53490.2228060822</v>
       </c>
       <c r="N41">
-        <f t="shared" si="4"/>
-        <v>231.27953391098436</v>
+        <f t="shared" si="5"/>
+        <v>231.279533910984</v>
       </c>
       <c r="O41">
-        <f t="shared" si="5"/>
-        <v>2.9545162737734332E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0295451627377343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>39203</v>
       </c>
@@ -3163,53 +3766,53 @@
         <v>9570</v>
       </c>
       <c r="D42">
-        <f t="shared" si="6"/>
-        <v>8586.9166666666661</v>
+        <f t="shared" si="7"/>
+        <v>8586.91666666667</v>
       </c>
       <c r="E42">
-        <f t="shared" si="7"/>
-        <v>8597.8333333333321</v>
+        <f t="shared" si="8"/>
+        <v>8597.83333333333</v>
       </c>
       <c r="F42">
-        <f t="shared" si="8"/>
-        <v>1.1130711225696397</v>
+        <f t="shared" si="9"/>
+        <v>1.11307112256964</v>
       </c>
       <c r="G42">
-        <v>1.0700925220273949</v>
+        <v>1.07009252202739</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
-        <v>8943.1519265910756</v>
+        <f t="shared" si="1"/>
+        <v>8943.15192659108</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42">
-        <f>$R$21*I42+$R$20</f>
-        <v>8401.7649103794884</v>
+        <f t="shared" si="0"/>
+        <v>8401.76491037949</v>
       </c>
       <c r="K42">
-        <f t="shared" si="1"/>
-        <v>8990.6658024292556</v>
+        <f t="shared" si="2"/>
+        <v>8990.66580242926</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
-        <v>579.33419757074444</v>
+        <f t="shared" si="3"/>
+        <v>579.334197570744</v>
       </c>
       <c r="M42">
-        <f t="shared" si="3"/>
-        <v>335628.11247493833</v>
+        <f t="shared" si="4"/>
+        <v>335628.112474938</v>
       </c>
       <c r="N42">
-        <f t="shared" si="4"/>
-        <v>579.33419757074444</v>
+        <f t="shared" si="5"/>
+        <v>579.334197570744</v>
       </c>
       <c r="O42">
-        <f t="shared" si="5"/>
-        <v>6.0536488774372461E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0605364887743725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>39234</v>
       </c>
@@ -3220,53 +3823,53 @@
         <v>9484</v>
       </c>
       <c r="D43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8608.75</v>
       </c>
       <c r="E43">
-        <f t="shared" si="7"/>
-        <v>8630.4166666666679</v>
+        <f t="shared" si="8"/>
+        <v>8630.41666666667</v>
       </c>
       <c r="F43">
-        <f t="shared" si="8"/>
-        <v>1.0989040699077872</v>
+        <f t="shared" si="9"/>
+        <v>1.09890406990779</v>
       </c>
       <c r="G43">
-        <v>1.1274807916790446</v>
+        <v>1.12748079167904</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
-        <v>8411.6732364694435</v>
+        <f t="shared" si="1"/>
+        <v>8411.67323646944</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43">
-        <f>$R$21*I43+$R$20</f>
-        <v>8429.9576220221225</v>
+        <f t="shared" si="0"/>
+        <v>8429.95762202212</v>
       </c>
       <c r="K43">
-        <f t="shared" si="1"/>
-        <v>9504.6152934982983</v>
+        <f t="shared" si="2"/>
+        <v>9504.6152934983</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
-        <v>-20.615293498298342</v>
+        <f t="shared" si="3"/>
+        <v>-20.6152934982983</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
-        <v>424.99032602098191</v>
+        <f t="shared" si="4"/>
+        <v>424.990326020982</v>
       </c>
       <c r="N43">
-        <f t="shared" si="4"/>
-        <v>20.615293498298342</v>
+        <f t="shared" si="5"/>
+        <v>20.6152934982983</v>
       </c>
       <c r="O43">
-        <f t="shared" si="5"/>
-        <v>2.173691849251196E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0021736918492512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>39264</v>
       </c>
@@ -3277,53 +3880,53 @@
         <v>8608</v>
       </c>
       <c r="D44">
-        <f t="shared" si="6"/>
-        <v>8652.0833333333339</v>
+        <f t="shared" si="7"/>
+        <v>8652.08333333333</v>
       </c>
       <c r="E44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8671.5</v>
       </c>
       <c r="F44">
-        <f t="shared" si="8"/>
-        <v>0.99267716081416135</v>
+        <f t="shared" si="9"/>
+        <v>0.992677160814161</v>
       </c>
       <c r="G44">
-        <v>0.9869194631008632</v>
+        <v>0.986919463100863</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
-        <v>8722.0896150472036</v>
+        <f t="shared" si="1"/>
+        <v>8722.0896150472</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44">
-        <f>$R$21*I44+$R$20</f>
-        <v>8458.1503336647547</v>
+        <f t="shared" si="0"/>
+        <v>8458.15033366475</v>
       </c>
       <c r="K44">
-        <f t="shared" si="1"/>
-        <v>8347.5131861268073</v>
+        <f t="shared" si="2"/>
+        <v>8347.51318612681</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
-        <v>260.48681387319266</v>
+        <f t="shared" si="3"/>
+        <v>260.486813873193</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
-        <v>67853.380201807318</v>
+        <f t="shared" si="4"/>
+        <v>67853.3802018073</v>
       </c>
       <c r="N44">
-        <f t="shared" si="4"/>
-        <v>260.48681387319266</v>
+        <f t="shared" si="5"/>
+        <v>260.486813873193</v>
       </c>
       <c r="O44">
-        <f t="shared" si="5"/>
-        <v>3.0261014622815132E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0302610146228151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>39295</v>
       </c>
@@ -3334,53 +3937,53 @@
         <v>9543</v>
       </c>
       <c r="D45">
-        <f t="shared" si="6"/>
-        <v>8690.9166666666661</v>
+        <f t="shared" si="7"/>
+        <v>8690.91666666667</v>
       </c>
       <c r="E45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8721.75</v>
       </c>
       <c r="F45">
-        <f t="shared" si="8"/>
-        <v>1.094161148852008</v>
+        <f t="shared" si="9"/>
+        <v>1.09416114885201</v>
       </c>
       <c r="G45">
-        <v>1.0505245770409877</v>
+        <v>1.05052457704099</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
-        <v>9084.0330712488103</v>
+        <f t="shared" si="1"/>
+        <v>9084.03307124881</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45">
-        <f>$R$21*I45+$R$20</f>
-        <v>8486.3430453073888</v>
+        <f t="shared" si="0"/>
+        <v>8486.34304530739</v>
       </c>
       <c r="K45">
-        <f t="shared" si="1"/>
-        <v>8915.1119382962715</v>
+        <f t="shared" si="2"/>
+        <v>8915.11193829627</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
-        <v>627.88806170372845</v>
+        <f t="shared" si="3"/>
+        <v>627.888061703728</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
-        <v>394243.41803006514</v>
+        <f t="shared" si="4"/>
+        <v>394243.418030065</v>
       </c>
       <c r="N45">
-        <f t="shared" si="4"/>
-        <v>627.88806170372845</v>
+        <f t="shared" si="5"/>
+        <v>627.888061703728</v>
       </c>
       <c r="O45">
-        <f t="shared" si="5"/>
-        <v>6.5795668207453473E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0657956682074535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>39326</v>
       </c>
@@ -3391,53 +3994,53 @@
         <v>8123</v>
       </c>
       <c r="D46">
-        <f t="shared" si="6"/>
-        <v>8752.5833333333339</v>
+        <f t="shared" si="7"/>
+        <v>8752.58333333333</v>
       </c>
       <c r="E46">
-        <f t="shared" si="7"/>
-        <v>8759.6666666666679</v>
+        <f t="shared" si="8"/>
+        <v>8759.66666666667</v>
       </c>
       <c r="F46">
-        <f t="shared" si="8"/>
-        <v>0.92731839111077274</v>
+        <f t="shared" si="9"/>
+        <v>0.927318391110773</v>
       </c>
       <c r="G46">
-        <v>0.99523185006811066</v>
+        <v>0.995231850068111</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
-        <v>8161.9172451565801</v>
+        <f t="shared" si="1"/>
+        <v>8161.91724515658</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46">
-        <f>$R$21*I46+$R$20</f>
-        <v>8514.5357569500229</v>
+        <f t="shared" si="0"/>
+        <v>8514.53575695002</v>
       </c>
       <c r="K46">
-        <f t="shared" si="1"/>
-        <v>8473.9371738604532</v>
+        <f t="shared" si="2"/>
+        <v>8473.93717386045</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
-        <v>-350.93717386045319</v>
+        <f t="shared" si="3"/>
+        <v>-350.937173860453</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
-        <v>123156.89999716195</v>
+        <f t="shared" si="4"/>
+        <v>123156.899997162</v>
       </c>
       <c r="N46">
-        <f t="shared" si="4"/>
-        <v>350.93717386045319</v>
+        <f t="shared" si="5"/>
+        <v>350.937173860453</v>
       </c>
       <c r="O46">
-        <f t="shared" si="5"/>
-        <v>4.3202902112575797E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0432029021125758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>39356</v>
       </c>
@@ -3448,53 +4051,53 @@
         <v>9649</v>
       </c>
       <c r="D47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8766.75</v>
       </c>
       <c r="E47">
-        <f t="shared" si="7"/>
-        <v>8811.2083333333321</v>
+        <f t="shared" si="8"/>
+        <v>8811.20833333333</v>
       </c>
       <c r="F47">
-        <f t="shared" si="8"/>
-        <v>1.0950824943608757</v>
+        <f t="shared" si="9"/>
+        <v>1.09508249436088</v>
       </c>
       <c r="G47">
-        <v>1.0236210272722996</v>
+        <v>1.0236210272723</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
-        <v>9426.3401619564538</v>
+        <f t="shared" si="1"/>
+        <v>9426.34016195645</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47">
-        <f>$R$21*I47+$R$20</f>
-        <v>8542.728468592657</v>
+        <f t="shared" si="0"/>
+        <v>8542.72846859266</v>
       </c>
       <c r="K47">
-        <f t="shared" si="1"/>
-        <v>8744.5164907291346</v>
+        <f t="shared" si="2"/>
+        <v>8744.51649072913</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
-        <v>904.4835092708654</v>
+        <f t="shared" si="3"/>
+        <v>904.483509270865</v>
       </c>
       <c r="M47">
-        <f t="shared" si="3"/>
-        <v>818090.4185429397</v>
+        <f t="shared" si="4"/>
+        <v>818090.41854294</v>
       </c>
       <c r="N47">
-        <f t="shared" si="4"/>
-        <v>904.4835092708654</v>
+        <f t="shared" si="5"/>
+        <v>904.483509270865</v>
       </c>
       <c r="O47">
-        <f t="shared" si="5"/>
-        <v>9.3738574906297584E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0937385749062976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>39387</v>
       </c>
@@ -3505,53 +4108,53 @@
         <v>9390</v>
       </c>
       <c r="D48">
-        <f t="shared" si="6"/>
-        <v>8855.6666666666661</v>
+        <f t="shared" si="7"/>
+        <v>8855.66666666667</v>
       </c>
       <c r="E48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8865</v>
       </c>
       <c r="F48">
-        <f t="shared" si="8"/>
-        <v>1.0592216582064298</v>
+        <f t="shared" si="9"/>
+        <v>1.05922165820643</v>
       </c>
       <c r="G48">
-        <v>1.0369421162037697</v>
+        <v>1.03694211620377</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
-        <v>9055.4717117447744</v>
+        <f t="shared" si="1"/>
+        <v>9055.47171174477</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48">
-        <f>$R$21*I48+$R$20</f>
-        <v>8570.9211802352911</v>
+        <f t="shared" si="0"/>
+        <v>8570.92118023529</v>
       </c>
       <c r="K48">
-        <f t="shared" si="1"/>
-        <v>8887.549146448895</v>
+        <f t="shared" si="2"/>
+        <v>8887.5491464489</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
-        <v>502.45085355110496</v>
+        <f t="shared" si="3"/>
+        <v>502.450853551105</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
-        <v>252456.86023423393</v>
+        <f t="shared" si="4"/>
+        <v>252456.860234234</v>
       </c>
       <c r="N48">
-        <f t="shared" si="4"/>
-        <v>502.45085355110496</v>
+        <f t="shared" si="5"/>
+        <v>502.450853551105</v>
       </c>
       <c r="O48">
-        <f t="shared" si="5"/>
-        <v>5.3509143083184767E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0535091430831848</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>39417</v>
       </c>
@@ -3562,53 +4165,53 @@
         <v>10065</v>
       </c>
       <c r="D49">
-        <f t="shared" si="6"/>
-        <v>8874.3333333333339</v>
+        <f t="shared" si="7"/>
+        <v>8874.33333333333</v>
       </c>
       <c r="E49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8894.875</v>
       </c>
       <c r="F49">
-        <f t="shared" si="8"/>
-        <v>1.1315504714793632</v>
+        <f t="shared" si="9"/>
+        <v>1.13155047147936</v>
       </c>
       <c r="G49">
-        <v>1.170588850519408</v>
+        <v>1.17058885051941</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
-        <v>8598.2366870605401</v>
+        <f t="shared" si="1"/>
+        <v>8598.23668706054</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49">
-        <f>$R$21*I49+$R$20</f>
-        <v>8599.1138918779252</v>
+        <f t="shared" si="0"/>
+        <v>8599.11389187793</v>
       </c>
       <c r="K49">
-        <f t="shared" si="1"/>
-        <v>10066.026846178853</v>
+        <f t="shared" si="2"/>
+        <v>10066.0268461789</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
-        <v>-1.0268461788527929</v>
+        <f t="shared" si="3"/>
+        <v>-1.02684617885279</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
-        <v>1.0544130750245821</v>
+        <f t="shared" si="4"/>
+        <v>1.05441307502458</v>
       </c>
       <c r="N49">
-        <f t="shared" si="4"/>
-        <v>1.0268461788527929</v>
+        <f t="shared" si="5"/>
+        <v>1.02684617885279</v>
       </c>
       <c r="O49">
-        <f t="shared" si="5"/>
-        <v>1.0202147827648216E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.000102021478276482</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>39448</v>
       </c>
@@ -3619,53 +4222,53 @@
         <v>7093</v>
       </c>
       <c r="D50">
-        <f t="shared" si="6"/>
-        <v>8915.4166666666661</v>
+        <f t="shared" si="7"/>
+        <v>8915.41666666667</v>
       </c>
       <c r="E50">
-        <f t="shared" si="7"/>
-        <v>8954.7916666666661</v>
+        <f t="shared" si="8"/>
+        <v>8954.79166666667</v>
       </c>
       <c r="F50">
-        <f t="shared" si="8"/>
-        <v>0.79208989600539759</v>
+        <f t="shared" si="9"/>
+        <v>0.792089896005398</v>
       </c>
       <c r="G50">
-        <v>0.76041695462442593</v>
+        <v>0.760416954624426</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
-        <v>9327.7772896361457</v>
+        <f t="shared" si="1"/>
+        <v>9327.77728963615</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50">
-        <f>$R$21*I50+$R$20</f>
-        <v>8627.3066035205593</v>
+        <f t="shared" si="0"/>
+        <v>8627.30660352056</v>
       </c>
       <c r="K50">
-        <f t="shared" si="1"/>
-        <v>6560.3502140603032</v>
+        <f t="shared" si="2"/>
+        <v>6560.3502140603</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
-        <v>532.64978593969681</v>
+        <f t="shared" si="3"/>
+        <v>532.649785939697</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
-        <v>283715.79446160485</v>
+        <f t="shared" si="4"/>
+        <v>283715.794461605</v>
       </c>
       <c r="N50">
-        <f t="shared" si="4"/>
-        <v>532.64978593969681</v>
+        <f t="shared" si="5"/>
+        <v>532.649785939697</v>
       </c>
       <c r="O50">
-        <f t="shared" si="5"/>
-        <v>7.5095134067347635E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0750951340673476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>39479</v>
       </c>
@@ -3676,53 +4279,53 @@
         <v>7483</v>
       </c>
       <c r="D51">
-        <f t="shared" si="6"/>
-        <v>8994.1666666666661</v>
+        <f t="shared" si="7"/>
+        <v>8994.16666666667</v>
       </c>
       <c r="E51">
-        <f t="shared" si="7"/>
-        <v>8987.1666666666661</v>
+        <f t="shared" si="8"/>
+        <v>8987.16666666667</v>
       </c>
       <c r="F51">
-        <f t="shared" si="8"/>
-        <v>0.83263171559445881</v>
+        <f t="shared" si="9"/>
+        <v>0.832631715594459</v>
       </c>
       <c r="G51">
-        <v>0.83017451578218504</v>
+        <v>0.830174515782185</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
-        <v>9013.7674160589795</v>
+        <f t="shared" si="1"/>
+        <v>9013.76741605898</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51">
-        <f>$R$21*I51+$R$20</f>
-        <v>8655.4993151631934</v>
+        <f t="shared" si="0"/>
+        <v>8655.49931516319</v>
       </c>
       <c r="K51">
-        <f t="shared" si="1"/>
-        <v>7185.5749528186379</v>
+        <f t="shared" si="2"/>
+        <v>7185.57495281864</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
-        <v>297.42504718136206</v>
+        <f t="shared" si="3"/>
+        <v>297.425047181362</v>
       </c>
       <c r="M51">
-        <f t="shared" si="3"/>
-        <v>88461.658690835451</v>
+        <f t="shared" si="4"/>
+        <v>88461.6586908355</v>
       </c>
       <c r="N51">
-        <f t="shared" si="4"/>
-        <v>297.42504718136206</v>
+        <f t="shared" si="5"/>
+        <v>297.425047181362</v>
       </c>
       <c r="O51">
-        <f t="shared" si="5"/>
-        <v>3.9746765626267812E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0397467656262678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>39508</v>
       </c>
@@ -3733,53 +4336,53 @@
         <v>8365</v>
       </c>
       <c r="D52">
-        <f t="shared" si="6"/>
-        <v>8980.1666666666661</v>
+        <f t="shared" si="7"/>
+        <v>8980.16666666667</v>
       </c>
       <c r="E52">
-        <f t="shared" si="7"/>
-        <v>9026.0833333333321</v>
+        <f t="shared" si="8"/>
+        <v>9026.08333333333</v>
       </c>
       <c r="F52">
-        <f t="shared" si="8"/>
-        <v>0.92675856083757269</v>
+        <f t="shared" si="9"/>
+        <v>0.926758560837573</v>
       </c>
       <c r="G52">
-        <v>0.98554121296497021</v>
+        <v>0.98554121296497</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
-        <v>8487.7221672284577</v>
+        <f t="shared" si="1"/>
+        <v>8487.72216722846</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52">
-        <f>$R$21*I52+$R$20</f>
-        <v>8683.6920268058257</v>
+        <f t="shared" si="0"/>
+        <v>8683.69202680583</v>
       </c>
       <c r="K52">
-        <f t="shared" si="1"/>
-        <v>8558.1363731124547</v>
+        <f t="shared" si="2"/>
+        <v>8558.13637311245</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
-        <v>-193.13637311245475</v>
+        <f t="shared" si="3"/>
+        <v>-193.136373112455</v>
       </c>
       <c r="M52">
-        <f t="shared" si="3"/>
-        <v>37301.658619033333</v>
+        <f t="shared" si="4"/>
+        <v>37301.6586190333</v>
       </c>
       <c r="N52">
-        <f t="shared" si="4"/>
-        <v>193.13637311245475</v>
+        <f t="shared" si="5"/>
+        <v>193.136373112455</v>
       </c>
       <c r="O52">
-        <f t="shared" si="5"/>
-        <v>2.3088627987143426E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0230886279871434</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>39539</v>
       </c>
@@ -3790,53 +4393,53 @@
         <v>8895</v>
       </c>
       <c r="D53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9072</v>
       </c>
       <c r="E53">
-        <f t="shared" si="7"/>
-        <v>9084.4583333333321</v>
+        <f t="shared" si="8"/>
+        <v>9084.45833333333</v>
       </c>
       <c r="F53">
-        <f t="shared" si="8"/>
-        <v>0.97914478482022882</v>
+        <f t="shared" si="9"/>
+        <v>0.979144784820229</v>
       </c>
       <c r="G53">
-        <v>0.96246611871654009</v>
+        <v>0.96246611871654</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
-        <v>9241.8837681908099</v>
+        <f t="shared" si="1"/>
+        <v>9241.88376819081</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53">
-        <f>$R$21*I53+$R$20</f>
-        <v>8711.8847384484598</v>
+        <f t="shared" si="0"/>
+        <v>8711.88473844846</v>
       </c>
       <c r="K53">
-        <f t="shared" si="1"/>
-        <v>8384.8938909203498</v>
+        <f t="shared" si="2"/>
+        <v>8384.89389092035</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
-        <v>510.1061090796502</v>
+        <f t="shared" si="3"/>
+        <v>510.10610907965</v>
       </c>
       <c r="M53">
-        <f t="shared" si="3"/>
-        <v>260208.24252037998</v>
+        <f t="shared" si="4"/>
+        <v>260208.24252038</v>
       </c>
       <c r="N53">
-        <f t="shared" si="4"/>
-        <v>510.1061090796502</v>
+        <f t="shared" si="5"/>
+        <v>510.10610907965</v>
       </c>
       <c r="O53">
-        <f t="shared" si="5"/>
-        <v>5.7347510857745948E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0573475108577459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>39569</v>
       </c>
@@ -3847,53 +4450,53 @@
         <v>9794</v>
       </c>
       <c r="D54">
-        <f t="shared" si="6"/>
-        <v>9096.9166666666661</v>
+        <f t="shared" si="7"/>
+        <v>9096.91666666667</v>
       </c>
       <c r="E54">
-        <f t="shared" si="7"/>
-        <v>9070.5833333333321</v>
+        <f t="shared" si="8"/>
+        <v>9070.58333333333</v>
       </c>
       <c r="F54">
-        <f t="shared" si="8"/>
-        <v>1.079754150321093</v>
+        <f t="shared" si="9"/>
+        <v>1.07975415032109</v>
       </c>
       <c r="G54">
-        <v>1.0700925220273949</v>
+        <v>1.07009252202739</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
-        <v>9152.4796205886105</v>
+        <f t="shared" si="1"/>
+        <v>9152.47962058861</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54">
-        <f>$R$21*I54+$R$20</f>
-        <v>8740.0774500910939</v>
+        <f t="shared" si="0"/>
+        <v>8740.07745009109</v>
       </c>
       <c r="K54">
-        <f t="shared" si="1"/>
-        <v>9352.6915212827407</v>
+        <f t="shared" si="2"/>
+        <v>9352.69152128274</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
-        <v>441.30847871725928</v>
+        <f t="shared" si="3"/>
+        <v>441.308478717259</v>
       </c>
       <c r="M54">
-        <f t="shared" si="3"/>
-        <v>194753.17338774167</v>
+        <f t="shared" si="4"/>
+        <v>194753.173387742</v>
       </c>
       <c r="N54">
-        <f t="shared" si="4"/>
-        <v>441.30847871725928</v>
+        <f t="shared" si="5"/>
+        <v>441.308478717259</v>
       </c>
       <c r="O54">
-        <f t="shared" si="5"/>
-        <v>4.5059064602538217E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0450590646025382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>39600</v>
       </c>
@@ -3904,53 +4507,53 @@
         <v>9977</v>
       </c>
       <c r="D55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9044.25</v>
       </c>
       <c r="E55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9076.5</v>
       </c>
       <c r="F55">
-        <f t="shared" si="8"/>
-        <v>1.0992122514184983</v>
+        <f t="shared" si="9"/>
+        <v>1.0992122514185</v>
       </c>
       <c r="G55">
-        <v>1.1274807916790446</v>
+        <v>1.12748079167904</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
-        <v>8848.9312400100844</v>
+        <f t="shared" si="1"/>
+        <v>8848.93124001008</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55">
-        <f>$R$21*I55+$R$20</f>
-        <v>8768.2701617337279</v>
+        <f t="shared" si="0"/>
+        <v>8768.27016173373</v>
       </c>
       <c r="K55">
-        <f t="shared" si="1"/>
-        <v>9886.0561836072884</v>
+        <f t="shared" si="2"/>
+        <v>9886.05618360729</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
-        <v>90.943816392711597</v>
+        <f t="shared" si="3"/>
+        <v>90.9438163927116</v>
       </c>
       <c r="M55">
-        <f t="shared" si="3"/>
-        <v>8270.7777400712384</v>
+        <f t="shared" si="4"/>
+        <v>8270.77774007124</v>
       </c>
       <c r="N55">
-        <f t="shared" si="4"/>
-        <v>90.943816392711597</v>
+        <f t="shared" si="5"/>
+        <v>90.9438163927116</v>
       </c>
       <c r="O55">
-        <f t="shared" si="5"/>
-        <v>9.1153469372267804E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.00911534693722678</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>39630</v>
       </c>
@@ -3961,53 +4564,53 @@
         <v>9553</v>
       </c>
       <c r="D56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9108.75</v>
       </c>
       <c r="E56">
-        <f t="shared" si="7"/>
-        <v>9115.9583333333321</v>
+        <f t="shared" si="8"/>
+        <v>9115.95833333333</v>
       </c>
       <c r="F56">
-        <f t="shared" si="8"/>
-        <v>1.0479424818198857</v>
+        <f t="shared" si="9"/>
+        <v>1.04794248181989</v>
       </c>
       <c r="G56">
-        <v>0.9869194631008632</v>
+        <v>0.986919463100863</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
-        <v>9679.6145553608185</v>
+        <f t="shared" si="1"/>
+        <v>9679.61455536082</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56">
-        <f>$R$21*I56+$R$20</f>
-        <v>8796.462873376362</v>
+        <f t="shared" si="0"/>
+        <v>8796.46287337636</v>
       </c>
       <c r="K56">
-        <f t="shared" si="1"/>
-        <v>8681.4004161792764</v>
+        <f t="shared" si="2"/>
+        <v>8681.40041617928</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
-        <v>871.59958382072364</v>
+        <f t="shared" si="3"/>
+        <v>871.599583820724</v>
       </c>
       <c r="M56">
-        <f t="shared" si="3"/>
-        <v>759685.83451645868</v>
+        <f t="shared" si="4"/>
+        <v>759685.834516459</v>
       </c>
       <c r="N56">
-        <f t="shared" si="4"/>
-        <v>871.59958382072364</v>
+        <f t="shared" si="5"/>
+        <v>871.599583820724</v>
       </c>
       <c r="O56">
-        <f t="shared" si="5"/>
-        <v>9.1238310878333895E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0912383108783339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>39661</v>
       </c>
@@ -4018,53 +4621,53 @@
         <v>9375</v>
       </c>
       <c r="D57">
-        <f t="shared" si="6"/>
-        <v>9123.1666666666661</v>
+        <f t="shared" si="7"/>
+        <v>9123.16666666667</v>
       </c>
       <c r="E57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9127.125</v>
       </c>
       <c r="F57">
-        <f t="shared" si="8"/>
-        <v>1.0271580590821316</v>
+        <f t="shared" si="9"/>
+        <v>1.02715805908213</v>
       </c>
       <c r="G57">
-        <v>1.0505245770409877</v>
+        <v>1.05052457704099</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
-        <v>8924.1129668822796</v>
+        <f t="shared" si="1"/>
+        <v>8924.11296688228</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57">
-        <f>$R$21*I57+$R$20</f>
-        <v>8824.6555850189961</v>
+        <f t="shared" si="0"/>
+        <v>8824.655585019</v>
       </c>
       <c r="K57">
-        <f t="shared" si="1"/>
-        <v>9270.5175759844697</v>
+        <f t="shared" si="2"/>
+        <v>9270.51757598447</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
-        <v>104.48242401553034</v>
+        <f t="shared" si="3"/>
+        <v>104.48242401553</v>
       </c>
       <c r="M57">
-        <f t="shared" si="3"/>
-        <v>10916.576928161072</v>
+        <f t="shared" si="4"/>
+        <v>10916.5769281611</v>
       </c>
       <c r="N57">
-        <f t="shared" si="4"/>
-        <v>104.48242401553034</v>
+        <f t="shared" si="5"/>
+        <v>104.48242401553</v>
       </c>
       <c r="O57">
-        <f t="shared" si="5"/>
-        <v>1.1144791894989903E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0111447918949899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>39692</v>
       </c>
@@ -4075,53 +4678,53 @@
         <v>9225</v>
       </c>
       <c r="D58">
-        <f t="shared" si="6"/>
-        <v>9131.0833333333339</v>
+        <f t="shared" si="7"/>
+        <v>9131.08333333333</v>
       </c>
       <c r="E58">
-        <f t="shared" si="7"/>
-        <v>9144.5416666666679</v>
+        <f t="shared" si="8"/>
+        <v>9144.54166666667</v>
       </c>
       <c r="F58">
-        <f t="shared" si="8"/>
-        <v>1.0087985091288518</v>
+        <f t="shared" si="9"/>
+        <v>1.00879850912885</v>
       </c>
       <c r="G58">
-        <v>0.99523185006811066</v>
+        <v>0.995231850068111</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
-        <v>9269.1969206659414</v>
+        <f t="shared" si="1"/>
+        <v>9269.19692066594</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58">
-        <f>$R$21*I58+$R$20</f>
-        <v>8852.8482966616284</v>
+        <f t="shared" si="0"/>
+        <v>8852.84829666163</v>
       </c>
       <c r="K58">
-        <f t="shared" si="1"/>
-        <v>8810.6365886588737</v>
+        <f t="shared" si="2"/>
+        <v>8810.63658865887</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
-        <v>414.36341134112627</v>
+        <f t="shared" si="3"/>
+        <v>414.363411341126</v>
       </c>
       <c r="M58">
-        <f t="shared" si="3"/>
-        <v>171697.03665825541</v>
+        <f t="shared" si="4"/>
+        <v>171697.036658255</v>
       </c>
       <c r="N58">
-        <f t="shared" si="4"/>
-        <v>414.36341134112627</v>
+        <f t="shared" si="5"/>
+        <v>414.363411341126</v>
       </c>
       <c r="O58">
-        <f t="shared" si="5"/>
-        <v>4.4917442963807723E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0449174429638077</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>39722</v>
       </c>
@@ -4132,53 +4735,53 @@
         <v>9948</v>
       </c>
       <c r="D59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9158</v>
       </c>
       <c r="E59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9169.125</v>
       </c>
       <c r="F59">
-        <f t="shared" si="8"/>
-        <v>1.0849454010060937</v>
+        <f t="shared" si="9"/>
+        <v>1.08494540100609</v>
       </c>
       <c r="G59">
-        <v>1.0236210272722996</v>
+        <v>1.0236210272723</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
-        <v>9718.4404530151096</v>
+        <f t="shared" si="1"/>
+        <v>9718.44045301511</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59">
-        <f>$R$21*I59+$R$20</f>
-        <v>8881.0410083042625</v>
+        <f t="shared" si="0"/>
+        <v>8881.04100830426</v>
       </c>
       <c r="K59">
-        <f t="shared" si="1"/>
-        <v>9090.8203201678298</v>
+        <f t="shared" si="2"/>
+        <v>9090.82032016783</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
-        <v>857.17967983217022</v>
+        <f t="shared" si="3"/>
+        <v>857.17967983217</v>
       </c>
       <c r="M59">
-        <f t="shared" si="3"/>
-        <v>734757.00351718185</v>
+        <f t="shared" si="4"/>
+        <v>734757.003517182</v>
       </c>
       <c r="N59">
-        <f t="shared" si="4"/>
-        <v>857.17967983217022</v>
+        <f t="shared" si="5"/>
+        <v>857.17967983217</v>
       </c>
       <c r="O59">
-        <f t="shared" si="5"/>
-        <v>8.616603134621735E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0861660313462174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>39753</v>
       </c>
@@ -4189,53 +4792,53 @@
         <v>8758</v>
       </c>
       <c r="D60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9180.25</v>
       </c>
       <c r="E60">
-        <f t="shared" si="7"/>
-        <v>9162.5416666666679</v>
+        <f t="shared" si="8"/>
+        <v>9162.54166666667</v>
       </c>
       <c r="F60">
-        <f t="shared" si="8"/>
-        <v>0.95584831355928335</v>
+        <f t="shared" si="9"/>
+        <v>0.955848313559283</v>
       </c>
       <c r="G60">
-        <v>1.0369421162037697</v>
+        <v>1.03694211620377</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
-        <v>8445.9873537231888</v>
+        <f t="shared" si="1"/>
+        <v>8445.98735372319</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60">
-        <f>$R$21*I60+$R$20</f>
-        <v>8909.2337199468966</v>
+        <f t="shared" si="0"/>
+        <v>8909.2337199469</v>
       </c>
       <c r="K60">
-        <f t="shared" si="1"/>
-        <v>9238.359667315719</v>
+        <f t="shared" si="2"/>
+        <v>9238.35966731572</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
-        <v>-480.35966731571898</v>
+        <f t="shared" si="3"/>
+        <v>-480.359667315719</v>
       </c>
       <c r="M60">
-        <f t="shared" si="3"/>
-        <v>230745.40998366821</v>
+        <f t="shared" si="4"/>
+        <v>230745.409983668</v>
       </c>
       <c r="N60">
-        <f t="shared" si="4"/>
-        <v>480.35966731571898</v>
+        <f t="shared" si="5"/>
+        <v>480.359667315719</v>
       </c>
       <c r="O60">
-        <f t="shared" si="5"/>
-        <v>5.4848100858154711E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0548481008581547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>39783</v>
       </c>
@@ -4246,53 +4849,53 @@
         <v>10839</v>
       </c>
       <c r="D61">
-        <f t="shared" si="6"/>
-        <v>9144.8333333333339</v>
+        <f t="shared" si="7"/>
+        <v>9144.83333333333</v>
       </c>
       <c r="E61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9152.75</v>
       </c>
       <c r="F61">
-        <f t="shared" si="8"/>
-        <v>1.1842342465379259</v>
+        <f t="shared" si="9"/>
+        <v>1.18423424653793</v>
       </c>
       <c r="G61">
-        <v>1.170588850519408</v>
+        <v>1.17058885051941</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
-        <v>9259.4423697018574</v>
+        <f t="shared" si="1"/>
+        <v>9259.44236970186</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61">
-        <f>$R$21*I61+$R$20</f>
-        <v>8937.4264315895307</v>
+        <f t="shared" si="0"/>
+        <v>8937.42643158953</v>
       </c>
       <c r="K61">
-        <f t="shared" si="1"/>
-        <v>10462.051733156162</v>
+        <f t="shared" si="2"/>
+        <v>10462.0517331562</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
-        <v>376.9482668438377</v>
+        <f t="shared" si="3"/>
+        <v>376.948266843838</v>
       </c>
       <c r="M61">
-        <f t="shared" si="3"/>
-        <v>142089.99587657308</v>
+        <f t="shared" si="4"/>
+        <v>142089.995876573</v>
       </c>
       <c r="N61">
-        <f t="shared" si="4"/>
-        <v>376.9482668438377</v>
+        <f t="shared" si="5"/>
+        <v>376.948266843838</v>
       </c>
       <c r="O61">
-        <f t="shared" si="5"/>
-        <v>3.4777033568026361E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0347770335680264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
         <v>39814</v>
       </c>
@@ -4303,53 +4906,53 @@
         <v>7266</v>
       </c>
       <c r="D62">
-        <f t="shared" si="6"/>
-        <v>9160.6666666666661</v>
+        <f t="shared" si="7"/>
+        <v>9160.66666666667</v>
       </c>
       <c r="E62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9158.75</v>
       </c>
       <c r="F62">
-        <f t="shared" si="8"/>
-        <v>0.79333970247031527</v>
+        <f t="shared" si="9"/>
+        <v>0.793339702470315</v>
       </c>
       <c r="G62">
-        <v>0.76041695462442593</v>
+        <v>0.760416954624426</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
-        <v>9555.2840527980024</v>
+        <f t="shared" si="1"/>
+        <v>9555.284052798</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62">
-        <f>$R$21*I62+$R$20</f>
-        <v>8965.6191432321648</v>
+        <f t="shared" si="0"/>
+        <v>8965.61914323216</v>
       </c>
       <c r="K62">
-        <f t="shared" si="1"/>
-        <v>6817.608805219058</v>
+        <f t="shared" si="2"/>
+        <v>6817.60880521906</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
-        <v>448.39119478094199</v>
+        <f t="shared" si="3"/>
+        <v>448.391194780942</v>
       </c>
       <c r="M62">
-        <f t="shared" si="3"/>
-        <v>201054.66355708067</v>
+        <f t="shared" si="4"/>
+        <v>201054.663557081</v>
       </c>
       <c r="N62">
-        <f t="shared" si="4"/>
-        <v>448.39119478094199</v>
+        <f t="shared" si="5"/>
+        <v>448.391194780942</v>
       </c>
       <c r="O62">
-        <f t="shared" si="5"/>
-        <v>6.1710871838830443E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0617108718388304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
         <v>39845</v>
       </c>
@@ -4360,53 +4963,53 @@
         <v>7578</v>
       </c>
       <c r="D63">
-        <f t="shared" si="6"/>
-        <v>9156.8333333333339</v>
+        <f t="shared" si="7"/>
+        <v>9156.83333333333</v>
       </c>
       <c r="E63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9138</v>
       </c>
       <c r="F63">
-        <f t="shared" si="8"/>
-        <v>0.82928430728824687</v>
+        <f t="shared" si="9"/>
+        <v>0.829284307288247</v>
       </c>
       <c r="G63">
-        <v>0.83017451578218504</v>
+        <v>0.830174515782185</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
-        <v>9128.2011865421537</v>
+        <f t="shared" si="1"/>
+        <v>9128.20118654215</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63">
-        <f>$R$21*I63+$R$20</f>
-        <v>8993.8118548747989</v>
+        <f t="shared" si="0"/>
+        <v>8993.8118548748</v>
       </c>
       <c r="K63">
-        <f t="shared" si="1"/>
-        <v>7466.4334016567618</v>
+        <f t="shared" si="2"/>
+        <v>7466.43340165676</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
-        <v>111.56659834323818</v>
+        <f t="shared" si="3"/>
+        <v>111.566598343238</v>
       </c>
       <c r="M63">
-        <f t="shared" si="3"/>
-        <v>12447.105865881436</v>
+        <f t="shared" si="4"/>
+        <v>12447.1058658814</v>
       </c>
       <c r="N63">
-        <f t="shared" si="4"/>
-        <v>111.56659834323818</v>
+        <f t="shared" si="5"/>
+        <v>111.566598343238</v>
       </c>
       <c r="O63">
-        <f t="shared" si="5"/>
-        <v>1.4722433141097675E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0147224331410977</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>39873</v>
       </c>
@@ -4417,53 +5020,53 @@
         <v>8688</v>
       </c>
       <c r="D64">
-        <f t="shared" si="6"/>
-        <v>9119.1666666666661</v>
+        <f t="shared" si="7"/>
+        <v>9119.16666666667</v>
       </c>
       <c r="E64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9121.125</v>
       </c>
       <c r="F64">
-        <f t="shared" si="8"/>
-        <v>0.95251408132220527</v>
+        <f t="shared" si="9"/>
+        <v>0.952514081322205</v>
       </c>
       <c r="G64">
-        <v>0.98554121296497021</v>
+        <v>0.98554121296497</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
-        <v>8815.4608713545531</v>
+        <f t="shared" si="1"/>
+        <v>8815.46087135455</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64">
-        <f>$R$21*I64+$R$20</f>
-        <v>9022.004566517433</v>
+        <f t="shared" si="0"/>
+        <v>9022.00456651743</v>
       </c>
       <c r="K64">
-        <f t="shared" si="1"/>
-        <v>8891.5573238610905</v>
+        <f t="shared" si="2"/>
+        <v>8891.55732386109</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
-        <v>-203.55732386109048</v>
+        <f t="shared" si="3"/>
+        <v>-203.55732386109</v>
       </c>
       <c r="M64">
-        <f t="shared" si="3"/>
-        <v>41435.584097488878</v>
+        <f t="shared" si="4"/>
+        <v>41435.5840974889</v>
       </c>
       <c r="N64">
-        <f t="shared" si="4"/>
-        <v>203.55732386109048</v>
+        <f t="shared" si="5"/>
+        <v>203.55732386109</v>
       </c>
       <c r="O64">
-        <f t="shared" si="5"/>
-        <v>2.3429710389167874E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0234297103891679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
         <v>39904</v>
       </c>
@@ -4474,53 +5077,53 @@
         <v>9162</v>
       </c>
       <c r="D65">
-        <f t="shared" si="6"/>
-        <v>9123.0833333333339</v>
+        <f t="shared" si="7"/>
+        <v>9123.08333333333</v>
       </c>
       <c r="E65">
-        <f t="shared" si="7"/>
-        <v>9086.7083333333339</v>
+        <f t="shared" si="8"/>
+        <v>9086.70833333333</v>
       </c>
       <c r="F65">
-        <f t="shared" si="8"/>
-        <v>1.0082859121152232</v>
+        <f t="shared" si="9"/>
+        <v>1.00828591211522</v>
       </c>
       <c r="G65">
-        <v>0.96246611871654009</v>
+        <v>0.96246611871654</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
-        <v>9519.2961308784925</v>
+        <f t="shared" si="1"/>
+        <v>9519.29613087849</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65">
-        <f>$R$21*I65+$R$20</f>
-        <v>9050.1972781600653</v>
+        <f t="shared" si="0"/>
+        <v>9050.19727816007</v>
       </c>
       <c r="K65">
-        <f t="shared" si="1"/>
-        <v>8710.5082479297125</v>
+        <f t="shared" si="2"/>
+        <v>8710.50824792971</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
-        <v>451.49175207028748</v>
+        <f t="shared" si="3"/>
+        <v>451.491752070287</v>
       </c>
       <c r="M65">
-        <f t="shared" si="3"/>
-        <v>203844.80218749793</v>
+        <f t="shared" si="4"/>
+        <v>203844.802187498</v>
       </c>
       <c r="N65">
-        <f t="shared" si="4"/>
-        <v>451.49175207028748</v>
+        <f t="shared" si="5"/>
+        <v>451.491752070287</v>
       </c>
       <c r="O65">
-        <f t="shared" si="5"/>
-        <v>4.9278733035394838E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0492787330353948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
         <v>39934</v>
       </c>
@@ -4531,53 +5134,53 @@
         <v>9369</v>
       </c>
       <c r="D66">
-        <f t="shared" si="6"/>
-        <v>9050.3333333333339</v>
+        <f t="shared" si="7"/>
+        <v>9050.33333333333</v>
       </c>
       <c r="E66">
-        <f t="shared" si="7"/>
-        <v>9058.2916666666679</v>
+        <f t="shared" si="8"/>
+        <v>9058.29166666667</v>
       </c>
       <c r="F66">
-        <f t="shared" si="8"/>
-        <v>1.0343009857451044</v>
+        <f t="shared" si="9"/>
+        <v>1.0343009857451</v>
       </c>
       <c r="G66">
-        <v>1.0700925220273949</v>
+        <v>1.07009252202739</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
-        <v>8755.3177011736461</v>
+        <f t="shared" si="1"/>
+        <v>8755.31770117365</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66">
-        <f>$R$21*I66+$R$20</f>
-        <v>9078.3899898026993</v>
+        <f t="shared" ref="J66:J109" si="10">$R$21*I66+$R$20</f>
+        <v>9078.3899898027</v>
       </c>
       <c r="K66">
-        <f t="shared" si="1"/>
-        <v>9714.7172401362259</v>
+        <f t="shared" si="2"/>
+        <v>9714.71724013623</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
-        <v>-345.71724013622588</v>
+        <f t="shared" si="3"/>
+        <v>-345.717240136226</v>
       </c>
       <c r="M66">
-        <f t="shared" si="3"/>
-        <v>119520.41012740888</v>
+        <f t="shared" si="4"/>
+        <v>119520.410127409</v>
       </c>
       <c r="N66">
-        <f t="shared" si="4"/>
-        <v>345.71724013622588</v>
+        <f t="shared" si="5"/>
+        <v>345.717240136226</v>
       </c>
       <c r="O66">
-        <f t="shared" si="5"/>
-        <v>3.6900121692413905E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.0369001216924139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1">
         <v>39965</v>
       </c>
@@ -4588,53 +5191,53 @@
         <v>10167</v>
       </c>
       <c r="D67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9066.25</v>
       </c>
       <c r="E67">
-        <f t="shared" si="7"/>
-        <v>9066.4166666666679</v>
+        <f t="shared" si="8"/>
+        <v>9066.41666666667</v>
       </c>
       <c r="F67">
-        <f t="shared" si="8"/>
-        <v>1.1213912148312912</v>
+        <f t="shared" si="9"/>
+        <v>1.12139121483129</v>
       </c>
       <c r="G67">
-        <v>1.1274807916790446</v>
+        <v>1.12748079167904</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H109" si="9">C67/G67</f>
-        <v>9017.4485233218929</v>
+        <f t="shared" ref="H67:H109" si="11">C67/G67</f>
+        <v>9017.44852332189</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67">
-        <f>$R$21*I67+$R$20</f>
-        <v>9106.5827014453334</v>
+        <f t="shared" si="10"/>
+        <v>9106.58270144533</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K109" si="10">J67*G67</f>
-        <v>10267.497073716277</v>
+        <f t="shared" ref="K67:K109" si="12">J67*G67</f>
+        <v>10267.4970737163</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L109" si="11">C67-K67</f>
-        <v>-100.49707371627665</v>
+        <f t="shared" ref="L67:L109" si="13">C67-K67</f>
+        <v>-100.497073716277</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M109" si="12">L67^2</f>
-        <v>10099.661825534742</v>
+        <f t="shared" ref="M67:M109" si="14">L67^2</f>
+        <v>10099.6618255347</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N109" si="13">ABS(L67)</f>
-        <v>100.49707371627665</v>
+        <f t="shared" ref="N67:N109" si="15">ABS(L67)</f>
+        <v>100.497073716277</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O110" si="14">N67/C67</f>
-        <v>9.8846339840933072E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O67:O110" si="16">N67/C67</f>
+        <v>0.00988463398409331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1">
         <v>39995</v>
       </c>
@@ -4645,53 +5248,53 @@
         <v>9507</v>
       </c>
       <c r="D68">
-        <f t="shared" si="6"/>
-        <v>9066.5833333333339</v>
+        <f t="shared" si="7"/>
+        <v>9066.58333333333</v>
       </c>
       <c r="E68">
-        <f t="shared" si="7"/>
-        <v>9037.0833333333339</v>
+        <f t="shared" si="8"/>
+        <v>9037.08333333333</v>
       </c>
       <c r="F68">
-        <f t="shared" si="8"/>
-        <v>1.051998709023007</v>
+        <f t="shared" si="9"/>
+        <v>1.05199870902301</v>
       </c>
       <c r="G68">
-        <v>0.9869194631008632</v>
+        <v>0.986919463100863</v>
       </c>
       <c r="H68">
-        <f t="shared" si="9"/>
-        <v>9633.0048757265049</v>
+        <f t="shared" si="11"/>
+        <v>9633.0048757265</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68">
-        <f>$R$21*I68+$R$20</f>
-        <v>9134.7754130879675</v>
+        <f t="shared" si="10"/>
+        <v>9134.77541308797</v>
       </c>
       <c r="K68">
-        <f t="shared" si="10"/>
-        <v>9015.2876462317436</v>
+        <f t="shared" si="12"/>
+        <v>9015.28764623174</v>
       </c>
       <c r="L68">
-        <f t="shared" si="11"/>
-        <v>491.71235376825643</v>
+        <f t="shared" si="13"/>
+        <v>491.712353768256</v>
       </c>
       <c r="M68">
-        <f t="shared" si="12"/>
-        <v>241781.03884831897</v>
+        <f t="shared" si="14"/>
+        <v>241781.038848319</v>
       </c>
       <c r="N68">
-        <f t="shared" si="13"/>
-        <v>491.71235376825643</v>
+        <f t="shared" si="15"/>
+        <v>491.712353768256</v>
       </c>
       <c r="O68">
-        <f t="shared" si="14"/>
-        <v>5.1721084860445611E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0517210848604456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1">
         <v>40026</v>
       </c>
@@ -4702,53 +5305,53 @@
         <v>8923</v>
       </c>
       <c r="D69">
-        <f t="shared" si="6"/>
-        <v>9007.5833333333339</v>
+        <f t="shared" si="7"/>
+        <v>9007.58333333333</v>
       </c>
       <c r="E69">
-        <f t="shared" si="7"/>
-        <v>9003.5416666666679</v>
+        <f t="shared" si="8"/>
+        <v>9003.54166666667</v>
       </c>
       <c r="F69">
-        <f t="shared" si="8"/>
-        <v>0.99105444616701743</v>
+        <f t="shared" si="9"/>
+        <v>0.991054446167017</v>
       </c>
       <c r="G69">
-        <v>1.0505245770409877</v>
+        <v>1.05052457704099</v>
       </c>
       <c r="H69">
-        <f t="shared" si="9"/>
-        <v>8493.8517337056619</v>
+        <f t="shared" si="11"/>
+        <v>8493.85173370566</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69">
-        <f>$R$21*I69+$R$20</f>
-        <v>9162.9681247306016</v>
+        <f t="shared" si="10"/>
+        <v>9162.9681247306</v>
       </c>
       <c r="K69">
-        <f t="shared" si="10"/>
-        <v>9625.9232136726678</v>
+        <f t="shared" si="12"/>
+        <v>9625.92321367267</v>
       </c>
       <c r="L69">
-        <f t="shared" si="11"/>
-        <v>-702.92321367266777</v>
+        <f t="shared" si="13"/>
+        <v>-702.923213672668</v>
       </c>
       <c r="M69">
-        <f t="shared" si="12"/>
-        <v>494101.04431991093</v>
+        <f t="shared" si="14"/>
+        <v>494101.044319911</v>
       </c>
       <c r="N69">
-        <f t="shared" si="13"/>
-        <v>702.92321367266777</v>
+        <f t="shared" si="15"/>
+        <v>702.923213672668</v>
       </c>
       <c r="O69">
-        <f t="shared" si="14"/>
-        <v>7.8776556502596407E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0787765565025964</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1">
         <v>40057</v>
       </c>
@@ -4759,53 +5362,53 @@
         <v>9272</v>
       </c>
       <c r="D70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8999.5</v>
       </c>
       <c r="E70">
-        <f t="shared" si="7"/>
-        <v>9032.2916666666679</v>
+        <f t="shared" si="8"/>
+        <v>9032.29166666667</v>
       </c>
       <c r="F70">
-        <f t="shared" si="8"/>
-        <v>1.0265390381732209</v>
+        <f t="shared" si="9"/>
+        <v>1.02653903817322</v>
       </c>
       <c r="G70">
-        <v>0.99523185006811066</v>
+        <v>0.995231850068111</v>
       </c>
       <c r="H70">
-        <f t="shared" si="9"/>
-        <v>9316.4220973891188</v>
+        <f t="shared" si="11"/>
+        <v>9316.42209738912</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70">
-        <f>$R$21*I70+$R$20</f>
-        <v>9191.1608363732357</v>
+        <f t="shared" si="10"/>
+        <v>9191.16083637324</v>
       </c>
       <c r="K70">
-        <f t="shared" si="10"/>
-        <v>9147.3360034572979</v>
+        <f t="shared" si="12"/>
+        <v>9147.3360034573</v>
       </c>
       <c r="L70">
-        <f t="shared" si="11"/>
-        <v>124.66399654270208</v>
+        <f t="shared" si="13"/>
+        <v>124.663996542702</v>
       </c>
       <c r="M70">
-        <f t="shared" si="12"/>
-        <v>15541.112033998836</v>
+        <f t="shared" si="14"/>
+        <v>15541.1120339988</v>
       </c>
       <c r="N70">
-        <f t="shared" si="13"/>
-        <v>124.66399654270208</v>
+        <f t="shared" si="15"/>
+        <v>124.663996542702</v>
       </c>
       <c r="O70">
-        <f t="shared" si="14"/>
-        <v>1.3445211016253461E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0134452110162535</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1">
         <v>40087</v>
       </c>
@@ -4816,53 +5419,53 @@
         <v>9075</v>
       </c>
       <c r="D71">
-        <f t="shared" si="6"/>
-        <v>9065.0833333333339</v>
+        <f t="shared" si="7"/>
+        <v>9065.08333333333</v>
       </c>
       <c r="E71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9076</v>
       </c>
       <c r="F71">
-        <f t="shared" si="8"/>
-        <v>0.99988981930365795</v>
+        <f t="shared" si="9"/>
+        <v>0.999889819303658</v>
       </c>
       <c r="G71">
-        <v>1.0236210272722996</v>
+        <v>1.0236210272723</v>
       </c>
       <c r="H71">
-        <f t="shared" si="9"/>
-        <v>8865.585757047862</v>
+        <f t="shared" si="11"/>
+        <v>8865.58575704786</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71">
-        <f>$R$21*I71+$R$20</f>
-        <v>9219.353548015868</v>
+        <f t="shared" si="10"/>
+        <v>9219.35354801587</v>
       </c>
       <c r="K71">
-        <f t="shared" si="10"/>
-        <v>9437.1241496065231</v>
+        <f t="shared" si="12"/>
+        <v>9437.12414960652</v>
       </c>
       <c r="L71">
-        <f t="shared" si="11"/>
-        <v>-362.12414960652313</v>
+        <f t="shared" si="13"/>
+        <v>-362.124149606523</v>
       </c>
       <c r="M71">
-        <f t="shared" si="12"/>
-        <v>131133.89972824755</v>
+        <f t="shared" si="14"/>
+        <v>131133.899728248</v>
       </c>
       <c r="N71">
-        <f t="shared" si="13"/>
-        <v>362.12414960652313</v>
+        <f t="shared" si="15"/>
+        <v>362.124149606523</v>
       </c>
       <c r="O71">
-        <f t="shared" si="14"/>
-        <v>3.9903487559947451E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0399034875599475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1">
         <v>40118</v>
       </c>
@@ -4873,53 +5476,53 @@
         <v>8949</v>
       </c>
       <c r="D72">
-        <f t="shared" si="6"/>
-        <v>9086.9166666666661</v>
+        <f t="shared" si="7"/>
+        <v>9086.91666666667</v>
       </c>
       <c r="E72">
-        <f t="shared" si="7"/>
-        <v>9086.1666666666661</v>
+        <f t="shared" si="8"/>
+        <v>9086.16666666667</v>
       </c>
       <c r="F72">
-        <f t="shared" si="8"/>
-        <v>0.98490379147788765</v>
+        <f t="shared" si="9"/>
+        <v>0.984903791477888</v>
       </c>
       <c r="G72">
-        <v>1.0369421162037697</v>
+        <v>1.03694211620377</v>
       </c>
       <c r="H72">
-        <f t="shared" si="9"/>
-        <v>8630.1827847075601</v>
+        <f t="shared" si="11"/>
+        <v>8630.18278470756</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72">
-        <f>$R$21*I72+$R$20</f>
-        <v>9247.5462596585021</v>
+        <f t="shared" si="10"/>
+        <v>9247.5462596585</v>
       </c>
       <c r="K72">
-        <f t="shared" si="10"/>
-        <v>9589.1701881825429</v>
+        <f t="shared" si="12"/>
+        <v>9589.17018818254</v>
       </c>
       <c r="L72">
-        <f t="shared" si="11"/>
-        <v>-640.17018818254292</v>
+        <f t="shared" si="13"/>
+        <v>-640.170188182543</v>
       </c>
       <c r="M72">
-        <f t="shared" si="12"/>
-        <v>409817.86983767239</v>
+        <f t="shared" si="14"/>
+        <v>409817.869837672</v>
       </c>
       <c r="N72">
-        <f t="shared" si="13"/>
-        <v>640.17018818254292</v>
+        <f t="shared" si="15"/>
+        <v>640.170188182543</v>
       </c>
       <c r="O72">
-        <f t="shared" si="14"/>
-        <v>7.1535388108452669E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0715353881084527</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1">
         <v>40148</v>
       </c>
@@ -4930,53 +5533,53 @@
         <v>10843</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73:D104" si="15">(C67+C68+C69+C70+C71+C72+C73+C74+C75+C76+C77+C78)/12</f>
-        <v>9085.4166666666661</v>
+        <f t="shared" ref="D73:D104" si="17">(C67+C68+C69+C70+C71+C72+C73+C74+C75+C76+C77+C78)/12</f>
+        <v>9085.41666666667</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73:E103" si="16">(D73+D74)/2</f>
-        <v>9101.4583333333321</v>
+        <f t="shared" ref="E73:E103" si="18">(D73+D74)/2</f>
+        <v>9101.45833333333</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73:F104" si="17">(C73/E73)</f>
-        <v>1.1913475404582601</v>
+        <f t="shared" ref="F73:F104" si="19">(C73/E73)</f>
+        <v>1.19134754045826</v>
       </c>
       <c r="G73">
-        <v>1.170588850519408</v>
+        <v>1.17058885051941</v>
       </c>
       <c r="H73">
-        <f t="shared" si="9"/>
-        <v>9262.8594533330779</v>
+        <f t="shared" si="11"/>
+        <v>9262.85945333308</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73">
-        <f>$R$21*I73+$R$20</f>
-        <v>9275.7389713011362</v>
+        <f t="shared" si="10"/>
+        <v>9275.73897130114</v>
       </c>
       <c r="K73">
-        <f t="shared" si="10"/>
-        <v>10858.076620133474</v>
+        <f t="shared" si="12"/>
+        <v>10858.0766201335</v>
       </c>
       <c r="L73">
-        <f t="shared" si="11"/>
-        <v>-15.076620133473625</v>
+        <f t="shared" si="13"/>
+        <v>-15.0766201334736</v>
       </c>
       <c r="M73">
-        <f t="shared" si="12"/>
-        <v>227.30447464906226</v>
+        <f t="shared" si="14"/>
+        <v>227.304474649062</v>
       </c>
       <c r="N73">
-        <f t="shared" si="13"/>
-        <v>15.076620133473625</v>
+        <f t="shared" si="15"/>
+        <v>15.0766201334736</v>
       </c>
       <c r="O73">
-        <f t="shared" si="14"/>
-        <v>1.3904473054942013E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0013904473054942</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1">
         <v>40179</v>
       </c>
@@ -4987,53 +5590,53 @@
         <v>6558</v>
       </c>
       <c r="D74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9117.5</v>
       </c>
       <c r="E74">
-        <f t="shared" si="16"/>
-        <v>9099.5833333333321</v>
+        <f t="shared" si="18"/>
+        <v>9099.58333333333</v>
       </c>
       <c r="F74">
-        <f t="shared" si="17"/>
-        <v>0.7206923393928294</v>
+        <f t="shared" si="19"/>
+        <v>0.720692339392829</v>
       </c>
       <c r="G74">
-        <v>0.76041695462442593</v>
+        <v>0.760416954624426</v>
       </c>
       <c r="H74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8624.21591222809</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74">
-        <f>$R$21*I74+$R$20</f>
-        <v>9303.9316829437703</v>
+        <f t="shared" si="10"/>
+        <v>9303.93168294377</v>
       </c>
       <c r="K74">
-        <f t="shared" si="10"/>
-        <v>7074.8673963778119</v>
+        <f t="shared" si="12"/>
+        <v>7074.86739637781</v>
       </c>
       <c r="L74">
-        <f t="shared" si="11"/>
-        <v>-516.86739637781193</v>
+        <f t="shared" si="13"/>
+        <v>-516.867396377812</v>
       </c>
       <c r="M74">
-        <f t="shared" si="12"/>
-        <v>267151.90543837816</v>
+        <f t="shared" si="14"/>
+        <v>267151.905438378</v>
       </c>
       <c r="N74">
-        <f t="shared" si="13"/>
-        <v>516.86739637781193</v>
+        <f t="shared" si="15"/>
+        <v>516.867396377812</v>
       </c>
       <c r="O74">
-        <f t="shared" si="14"/>
-        <v>7.8814790542514779E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0788147905425148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1">
         <v>40210</v>
       </c>
@@ -5044,53 +5647,53 @@
         <v>7481</v>
       </c>
       <c r="D75">
-        <f t="shared" si="15"/>
-        <v>9081.6666666666661</v>
+        <f t="shared" si="17"/>
+        <v>9081.66666666667</v>
       </c>
       <c r="E75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9096.25</v>
       </c>
       <c r="F75">
-        <f t="shared" si="17"/>
-        <v>0.82242682424075852</v>
+        <f t="shared" si="19"/>
+        <v>0.822426824240759</v>
       </c>
       <c r="G75">
-        <v>0.83017451578218504</v>
+        <v>0.830174515782185</v>
       </c>
       <c r="H75">
-        <f t="shared" si="9"/>
-        <v>9011.358284048807</v>
+        <f t="shared" si="11"/>
+        <v>9011.35828404881</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75">
-        <f>$R$21*I75+$R$20</f>
-        <v>9332.1243945864044</v>
+        <f t="shared" si="10"/>
+        <v>9332.1243945864</v>
       </c>
       <c r="K75">
-        <f t="shared" si="10"/>
-        <v>7747.2918504948848</v>
+        <f t="shared" si="12"/>
+        <v>7747.29185049488</v>
       </c>
       <c r="L75">
-        <f t="shared" si="11"/>
-        <v>-266.29185049488478</v>
+        <f t="shared" si="13"/>
+        <v>-266.291850494885</v>
       </c>
       <c r="M75">
-        <f t="shared" si="12"/>
-        <v>70911.349639990076</v>
+        <f t="shared" si="14"/>
+        <v>70911.3496399901</v>
       </c>
       <c r="N75">
-        <f t="shared" si="13"/>
-        <v>266.29185049488478</v>
+        <f t="shared" si="15"/>
+        <v>266.291850494885</v>
       </c>
       <c r="O75">
-        <f t="shared" si="14"/>
-        <v>3.5595755981136852E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0355957559811369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1">
         <v>40238</v>
       </c>
@@ -5101,53 +5704,53 @@
         <v>9475</v>
       </c>
       <c r="D76">
-        <f t="shared" si="15"/>
-        <v>9110.8333333333339</v>
+        <f t="shared" si="17"/>
+        <v>9110.83333333333</v>
       </c>
       <c r="E76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9117</v>
       </c>
       <c r="F76">
-        <f t="shared" si="17"/>
-        <v>1.0392673028408468</v>
+        <f t="shared" si="19"/>
+        <v>1.03926730284085</v>
       </c>
       <c r="G76">
-        <v>0.98554121296497021</v>
+        <v>0.98554121296497</v>
       </c>
       <c r="H76">
-        <f t="shared" si="9"/>
-        <v>9614.0068780023466</v>
+        <f t="shared" si="11"/>
+        <v>9614.00687800235</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76">
-        <f>$R$21*I76+$R$20</f>
-        <v>9360.3171062290385</v>
+        <f t="shared" si="10"/>
+        <v>9360.31710622904</v>
       </c>
       <c r="K76">
-        <f t="shared" si="10"/>
-        <v>9224.9782746097262</v>
+        <f t="shared" si="12"/>
+        <v>9224.97827460973</v>
       </c>
       <c r="L76">
-        <f t="shared" si="11"/>
-        <v>250.02172539027379</v>
+        <f t="shared" si="13"/>
+        <v>250.021725390274</v>
       </c>
       <c r="M76">
-        <f t="shared" si="12"/>
-        <v>62510.863167129479</v>
+        <f t="shared" si="14"/>
+        <v>62510.8631671295</v>
       </c>
       <c r="N76">
-        <f t="shared" si="13"/>
-        <v>250.02172539027379</v>
+        <f t="shared" si="15"/>
+        <v>250.021725390274</v>
       </c>
       <c r="O76">
-        <f t="shared" si="14"/>
-        <v>2.6387517191585625E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0263875171915856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1">
         <v>40269</v>
       </c>
@@ -5158,53 +5761,53 @@
         <v>9424</v>
       </c>
       <c r="D77">
-        <f t="shared" si="15"/>
-        <v>9123.1666666666661</v>
+        <f t="shared" si="17"/>
+        <v>9123.16666666667</v>
       </c>
       <c r="E77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9137.25</v>
       </c>
       <c r="F77">
-        <f t="shared" si="17"/>
-        <v>1.0313825275657336</v>
+        <f t="shared" si="19"/>
+        <v>1.03138252756573</v>
       </c>
       <c r="G77">
-        <v>0.96246611871654009</v>
+        <v>0.96246611871654</v>
       </c>
       <c r="H77">
-        <f t="shared" si="9"/>
-        <v>9791.5135055008632</v>
+        <f t="shared" si="11"/>
+        <v>9791.51350550086</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77">
-        <f>$R$21*I77+$R$20</f>
-        <v>9388.5098178716726</v>
+        <f t="shared" si="10"/>
+        <v>9388.50981787167</v>
       </c>
       <c r="K77">
-        <f t="shared" si="10"/>
-        <v>9036.1226049390789</v>
+        <f t="shared" si="12"/>
+        <v>9036.12260493908</v>
       </c>
       <c r="L77">
-        <f t="shared" si="11"/>
-        <v>387.87739506092112</v>
+        <f t="shared" si="13"/>
+        <v>387.877395060921</v>
       </c>
       <c r="M77">
-        <f t="shared" si="12"/>
-        <v>150448.87359924588</v>
+        <f t="shared" si="14"/>
+        <v>150448.873599246</v>
       </c>
       <c r="N77">
-        <f t="shared" si="13"/>
-        <v>387.87739506092112</v>
+        <f t="shared" si="15"/>
+        <v>387.877395060921</v>
       </c>
       <c r="O77">
-        <f t="shared" si="14"/>
-        <v>4.1158467217839674E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0411584672178397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1">
         <v>40299</v>
       </c>
@@ -5215,53 +5818,53 @@
         <v>9351</v>
       </c>
       <c r="D78">
-        <f t="shared" si="15"/>
-        <v>9151.3333333333339</v>
+        <f t="shared" si="17"/>
+        <v>9151.33333333333</v>
       </c>
       <c r="E78">
-        <f t="shared" si="16"/>
-        <v>9189.5416666666679</v>
+        <f t="shared" si="18"/>
+        <v>9189.54166666667</v>
       </c>
       <c r="F78">
-        <f t="shared" si="17"/>
-        <v>1.0175697917469586</v>
+        <f t="shared" si="19"/>
+        <v>1.01756979174696</v>
       </c>
       <c r="G78">
-        <v>1.0700925220273949</v>
+        <v>1.07009252202739</v>
       </c>
       <c r="H78">
-        <f t="shared" si="9"/>
-        <v>8738.4967257631288</v>
+        <f t="shared" si="11"/>
+        <v>8738.49672576313</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78">
-        <f>$R$21*I78+$R$20</f>
-        <v>9416.7025295143067</v>
+        <f t="shared" si="10"/>
+        <v>9416.70252951431</v>
       </c>
       <c r="K78">
-        <f t="shared" si="10"/>
-        <v>10076.742958989713</v>
+        <f t="shared" si="12"/>
+        <v>10076.7429589897</v>
       </c>
       <c r="L78">
-        <f t="shared" si="11"/>
-        <v>-725.74295898971286</v>
+        <f t="shared" si="13"/>
+        <v>-725.742958989713</v>
       </c>
       <c r="M78">
-        <f t="shared" si="12"/>
-        <v>526702.84252314409</v>
+        <f t="shared" si="14"/>
+        <v>526702.842523144</v>
       </c>
       <c r="N78">
-        <f t="shared" si="13"/>
-        <v>725.74295898971286</v>
+        <f t="shared" si="15"/>
+        <v>725.742958989713</v>
       </c>
       <c r="O78">
-        <f t="shared" si="14"/>
-        <v>7.7611267136104473E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0776112671361045</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1">
         <v>40330</v>
       </c>
@@ -5272,53 +5875,53 @@
         <v>10552</v>
       </c>
       <c r="D79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9227.75</v>
       </c>
       <c r="E79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9253.25</v>
       </c>
       <c r="F79">
-        <f t="shared" si="17"/>
-        <v>1.1403560911031259</v>
+        <f t="shared" si="19"/>
+        <v>1.14035609110313</v>
       </c>
       <c r="G79">
-        <v>1.1274807916790446</v>
+        <v>1.12748079167904</v>
       </c>
       <c r="H79">
-        <f t="shared" si="9"/>
-        <v>9358.9177552958226</v>
+        <f t="shared" si="11"/>
+        <v>9358.91775529582</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79">
-        <f>$R$21*I79+$R$20</f>
-        <v>9444.8952411569389</v>
+        <f t="shared" si="10"/>
+        <v>9444.89524115694</v>
       </c>
       <c r="K79">
-        <f t="shared" si="10"/>
-        <v>10648.937963825267</v>
+        <f t="shared" si="12"/>
+        <v>10648.9379638253</v>
       </c>
       <c r="L79">
-        <f t="shared" si="11"/>
-        <v>-96.937963825266706</v>
+        <f t="shared" si="13"/>
+        <v>-96.9379638252667</v>
       </c>
       <c r="M79">
-        <f t="shared" si="12"/>
-        <v>9396.9688305887157</v>
+        <f t="shared" si="14"/>
+        <v>9396.96883058872</v>
       </c>
       <c r="N79">
-        <f t="shared" si="13"/>
-        <v>96.937963825266706</v>
+        <f t="shared" si="15"/>
+        <v>96.9379638252667</v>
       </c>
       <c r="O79">
-        <f t="shared" si="14"/>
-        <v>9.1866910372693997E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0091866910372694</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1">
         <v>40360</v>
       </c>
@@ -5329,53 +5932,53 @@
         <v>9077</v>
       </c>
       <c r="D80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9278.75</v>
       </c>
       <c r="E80">
-        <f t="shared" si="16"/>
-        <v>9293.0416666666679</v>
+        <f t="shared" si="18"/>
+        <v>9293.04166666667</v>
       </c>
       <c r="F80">
-        <f t="shared" si="17"/>
-        <v>0.97675231916353178</v>
+        <f t="shared" si="19"/>
+        <v>0.976752319163532</v>
       </c>
       <c r="G80">
-        <v>0.9869194631008632</v>
+        <v>0.986919463100863</v>
       </c>
       <c r="H80">
-        <f t="shared" si="9"/>
-        <v>9197.3056965361829</v>
+        <f t="shared" si="11"/>
+        <v>9197.30569653618</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80">
-        <f>$R$21*I80+$R$20</f>
-        <v>9473.087952799573</v>
+        <f t="shared" si="10"/>
+        <v>9473.08795279957</v>
       </c>
       <c r="K80">
-        <f t="shared" si="10"/>
-        <v>9349.1748762842108</v>
+        <f t="shared" si="12"/>
+        <v>9349.17487628421</v>
       </c>
       <c r="L80">
-        <f t="shared" si="11"/>
-        <v>-272.17487628421077</v>
+        <f t="shared" si="13"/>
+        <v>-272.174876284211</v>
       </c>
       <c r="M80">
-        <f t="shared" si="12"/>
-        <v>74079.163280325432</v>
+        <f t="shared" si="14"/>
+        <v>74079.1632803254</v>
       </c>
       <c r="N80">
-        <f t="shared" si="13"/>
-        <v>272.17487628421077</v>
+        <f t="shared" si="15"/>
+        <v>272.174876284211</v>
       </c>
       <c r="O80">
-        <f t="shared" si="14"/>
-        <v>2.9985113615094278E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0299851136150943</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="1">
         <v>40391</v>
       </c>
@@ -5386,53 +5989,53 @@
         <v>9273</v>
       </c>
       <c r="D81">
-        <f t="shared" si="15"/>
-        <v>9307.3333333333339</v>
+        <f t="shared" si="17"/>
+        <v>9307.33333333333</v>
       </c>
       <c r="E81">
-        <f t="shared" si="16"/>
-        <v>9329.5416666666679</v>
+        <f t="shared" si="18"/>
+        <v>9329.54166666667</v>
       </c>
       <c r="F81">
-        <f t="shared" si="17"/>
-        <v>0.99393950220848637</v>
+        <f t="shared" si="19"/>
+        <v>0.993939502208486</v>
       </c>
       <c r="G81">
-        <v>1.0505245770409877</v>
+        <v>1.05052457704099</v>
       </c>
       <c r="H81">
-        <f t="shared" si="9"/>
-        <v>8827.0186178025997</v>
+        <f t="shared" si="11"/>
+        <v>8827.0186178026</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81">
-        <f>$R$21*I81+$R$20</f>
-        <v>9501.2806644422071</v>
+        <f t="shared" si="10"/>
+        <v>9501.28066444221</v>
       </c>
       <c r="K81">
-        <f t="shared" si="10"/>
-        <v>9981.3288513608641</v>
+        <f t="shared" si="12"/>
+        <v>9981.32885136086</v>
       </c>
       <c r="L81">
-        <f t="shared" si="11"/>
-        <v>-708.32885136086406</v>
+        <f t="shared" si="13"/>
+        <v>-708.328851360864</v>
       </c>
       <c r="M81">
-        <f t="shared" si="12"/>
-        <v>501729.76167020109</v>
+        <f t="shared" si="14"/>
+        <v>501729.761670201</v>
       </c>
       <c r="N81">
-        <f t="shared" si="13"/>
-        <v>708.32885136086406</v>
+        <f t="shared" si="15"/>
+        <v>708.328851360864</v>
       </c>
       <c r="O81">
-        <f t="shared" si="14"/>
-        <v>7.6386158887184738E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0763861588871847</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="1">
         <v>40422</v>
       </c>
@@ -5443,53 +6046,53 @@
         <v>9420</v>
       </c>
       <c r="D82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9351.75</v>
       </c>
       <c r="E82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9366.625</v>
       </c>
       <c r="F82">
-        <f t="shared" si="17"/>
-        <v>1.0056984239253732</v>
+        <f t="shared" si="19"/>
+        <v>1.00569842392537</v>
       </c>
       <c r="G82">
-        <v>0.99523185006811066</v>
+        <v>0.995231850068111</v>
       </c>
       <c r="H82">
-        <f t="shared" si="9"/>
-        <v>9465.1311645174173</v>
+        <f t="shared" si="11"/>
+        <v>9465.13116451742</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82">
-        <f>$R$21*I82+$R$20</f>
-        <v>9529.4733760848412</v>
+        <f t="shared" si="10"/>
+        <v>9529.47337608484</v>
       </c>
       <c r="K82">
-        <f t="shared" si="10"/>
-        <v>9484.0354182557203</v>
+        <f t="shared" si="12"/>
+        <v>9484.03541825572</v>
       </c>
       <c r="L82">
-        <f t="shared" si="11"/>
-        <v>-64.035418255720288</v>
+        <f t="shared" si="13"/>
+        <v>-64.0354182557203</v>
       </c>
       <c r="M82">
-        <f t="shared" si="12"/>
-        <v>4100.5347911850349</v>
+        <f t="shared" si="14"/>
+        <v>4100.53479118503</v>
       </c>
       <c r="N82">
-        <f t="shared" si="13"/>
-        <v>64.035418255720288</v>
+        <f t="shared" si="15"/>
+        <v>64.0354182557203</v>
       </c>
       <c r="O82">
-        <f t="shared" si="14"/>
-        <v>6.797815101456506E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.00679781510145651</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="1">
         <v>40452</v>
       </c>
@@ -5500,53 +6103,53 @@
         <v>9413</v>
       </c>
       <c r="D83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9381.5</v>
       </c>
       <c r="E83">
-        <f t="shared" si="16"/>
-        <v>9375.5416666666679</v>
+        <f t="shared" si="18"/>
+        <v>9375.54166666667</v>
       </c>
       <c r="F83">
-        <f t="shared" si="17"/>
-        <v>1.0039953247145719</v>
+        <f t="shared" si="19"/>
+        <v>1.00399532471457</v>
       </c>
       <c r="G83">
-        <v>1.0236210272722996</v>
+        <v>1.0236210272723</v>
       </c>
       <c r="H83">
-        <f t="shared" si="9"/>
-        <v>9195.7860860706915</v>
+        <f t="shared" si="11"/>
+        <v>9195.78608607069</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83">
-        <f>$R$21*I83+$R$20</f>
-        <v>9557.6660877274753</v>
+        <f t="shared" si="10"/>
+        <v>9557.66608772748</v>
       </c>
       <c r="K83">
-        <f t="shared" si="10"/>
-        <v>9783.4279790452201</v>
+        <f t="shared" si="12"/>
+        <v>9783.42797904522</v>
       </c>
       <c r="L83">
-        <f t="shared" si="11"/>
-        <v>-370.42797904522013</v>
+        <f t="shared" si="13"/>
+        <v>-370.42797904522</v>
       </c>
       <c r="M83">
-        <f t="shared" si="12"/>
-        <v>137216.88765952605</v>
+        <f t="shared" si="14"/>
+        <v>137216.887659526</v>
       </c>
       <c r="N83">
-        <f t="shared" si="13"/>
-        <v>370.42797904522013</v>
+        <f t="shared" si="15"/>
+        <v>370.42797904522</v>
       </c>
       <c r="O83">
-        <f t="shared" si="14"/>
-        <v>3.935280771754171E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0393528077175417</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="1">
         <v>40483</v>
       </c>
@@ -5557,53 +6160,53 @@
         <v>9866</v>
       </c>
       <c r="D84">
-        <f t="shared" si="15"/>
-        <v>9369.5833333333339</v>
+        <f t="shared" si="17"/>
+        <v>9369.58333333333</v>
       </c>
       <c r="E84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9395.25</v>
       </c>
       <c r="F84">
-        <f t="shared" si="17"/>
-        <v>1.0501051063037172</v>
+        <f t="shared" si="19"/>
+        <v>1.05010510630372</v>
       </c>
       <c r="G84">
-        <v>1.0369421162037697</v>
+        <v>1.03694211620377</v>
       </c>
       <c r="H84">
-        <f t="shared" si="9"/>
-        <v>9514.5137282293872</v>
+        <f t="shared" si="11"/>
+        <v>9514.51372822939</v>
       </c>
       <c r="I84">
         <v>83</v>
       </c>
       <c r="J84">
-        <f>$R$21*I84+$R$20</f>
-        <v>9585.8587993701076</v>
+        <f t="shared" si="10"/>
+        <v>9585.85879937011</v>
       </c>
       <c r="K84">
-        <f t="shared" si="10"/>
-        <v>9939.9807090493669</v>
+        <f t="shared" si="12"/>
+        <v>9939.98070904937</v>
       </c>
       <c r="L84">
-        <f t="shared" si="11"/>
-        <v>-73.980709049366851</v>
+        <f t="shared" si="13"/>
+        <v>-73.9807090493669</v>
       </c>
       <c r="M84">
-        <f t="shared" si="12"/>
-        <v>5473.1453114470705</v>
+        <f t="shared" si="14"/>
+        <v>5473.14531144707</v>
       </c>
       <c r="N84">
-        <f t="shared" si="13"/>
-        <v>73.980709049366851</v>
+        <f t="shared" si="15"/>
+        <v>73.9807090493669</v>
       </c>
       <c r="O84">
-        <f t="shared" si="14"/>
-        <v>7.498551494969273E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.00749855149496927</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="1">
         <v>40513</v>
       </c>
@@ -5614,53 +6217,53 @@
         <v>11455</v>
       </c>
       <c r="D85">
-        <f t="shared" si="15"/>
-        <v>9420.9166666666661</v>
+        <f t="shared" si="17"/>
+        <v>9420.91666666667</v>
       </c>
       <c r="E85">
-        <f t="shared" si="16"/>
-        <v>9453.9166666666661</v>
+        <f t="shared" si="18"/>
+        <v>9453.91666666667</v>
       </c>
       <c r="F85">
-        <f t="shared" si="17"/>
-        <v>1.2116671220922546</v>
+        <f t="shared" si="19"/>
+        <v>1.21166712209225</v>
       </c>
       <c r="G85">
-        <v>1.170588850519408</v>
+        <v>1.17058885051941</v>
       </c>
       <c r="H85">
-        <f t="shared" si="9"/>
-        <v>9785.673248909934</v>
+        <f t="shared" si="11"/>
+        <v>9785.67324890993</v>
       </c>
       <c r="I85">
         <v>84</v>
       </c>
       <c r="J85">
-        <f>$R$21*I85+$R$20</f>
-        <v>9614.0515110127417</v>
+        <f t="shared" si="10"/>
+        <v>9614.05151101274</v>
       </c>
       <c r="K85">
-        <f t="shared" si="10"/>
-        <v>11254.101507110783</v>
+        <f t="shared" si="12"/>
+        <v>11254.1015071108</v>
       </c>
       <c r="L85">
-        <f t="shared" si="11"/>
-        <v>200.89849288921687</v>
+        <f t="shared" si="13"/>
+        <v>200.898492889217</v>
       </c>
       <c r="M85">
-        <f t="shared" si="12"/>
-        <v>40360.204445158721</v>
+        <f t="shared" si="14"/>
+        <v>40360.2044451587</v>
       </c>
       <c r="N85">
-        <f t="shared" si="13"/>
-        <v>200.89849288921687</v>
+        <f t="shared" si="15"/>
+        <v>200.898492889217</v>
       </c>
       <c r="O85">
-        <f t="shared" si="14"/>
-        <v>1.7538061360909372E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0175380613609094</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="1">
         <v>40544</v>
       </c>
@@ -5671,53 +6274,53 @@
         <v>6901</v>
       </c>
       <c r="D86">
-        <f t="shared" si="15"/>
-        <v>9486.9166666666661</v>
+        <f t="shared" si="17"/>
+        <v>9486.91666666667</v>
       </c>
       <c r="E86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9488.125</v>
       </c>
       <c r="F86">
-        <f t="shared" si="17"/>
-        <v>0.72733021540082998</v>
+        <f t="shared" si="19"/>
+        <v>0.72733021540083</v>
       </c>
       <c r="G86">
-        <v>0.76041695462442593</v>
+        <v>0.760416954624426</v>
       </c>
       <c r="H86">
-        <f t="shared" si="9"/>
-        <v>9075.2842345663394</v>
+        <f t="shared" si="11"/>
+        <v>9075.28423456634</v>
       </c>
       <c r="I86">
         <v>85</v>
       </c>
       <c r="J86">
-        <f>$R$21*I86+$R$20</f>
-        <v>9642.2442226553758</v>
+        <f t="shared" si="10"/>
+        <v>9642.24422265538</v>
       </c>
       <c r="K86">
-        <f t="shared" si="10"/>
-        <v>7332.1259875365658</v>
+        <f t="shared" si="12"/>
+        <v>7332.12598753657</v>
       </c>
       <c r="L86">
-        <f t="shared" si="11"/>
-        <v>-431.12598753656584</v>
+        <f t="shared" si="13"/>
+        <v>-431.125987536566</v>
       </c>
       <c r="M86">
-        <f t="shared" si="12"/>
-        <v>185869.61712937913</v>
+        <f t="shared" si="14"/>
+        <v>185869.617129379</v>
       </c>
       <c r="N86">
-        <f t="shared" si="13"/>
-        <v>431.12598753656584</v>
+        <f t="shared" si="15"/>
+        <v>431.125987536566</v>
       </c>
       <c r="O86">
-        <f t="shared" si="14"/>
-        <v>6.2472973125136333E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0624729731251363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="1">
         <v>40575</v>
       </c>
@@ -5728,53 +6331,53 @@
         <v>8014</v>
       </c>
       <c r="D87">
-        <f t="shared" si="15"/>
-        <v>9489.3333333333339</v>
+        <f t="shared" si="17"/>
+        <v>9489.33333333333</v>
       </c>
       <c r="E87">
-        <f t="shared" si="16"/>
-        <v>9539.1666666666679</v>
+        <f t="shared" si="18"/>
+        <v>9539.16666666667</v>
       </c>
       <c r="F87">
-        <f t="shared" si="17"/>
-        <v>0.84011531405608442</v>
+        <f t="shared" si="19"/>
+        <v>0.840115314056084</v>
       </c>
       <c r="G87">
-        <v>0.83017451578218504</v>
+        <v>0.830174515782185</v>
       </c>
       <c r="H87">
-        <f t="shared" si="9"/>
-        <v>9653.3919647596758</v>
+        <f t="shared" si="11"/>
+        <v>9653.39196475968</v>
       </c>
       <c r="I87">
         <v>86</v>
       </c>
       <c r="J87">
-        <f>$R$21*I87+$R$20</f>
-        <v>9670.4369342980099</v>
+        <f t="shared" si="10"/>
+        <v>9670.43693429801</v>
       </c>
       <c r="K87">
-        <f t="shared" si="10"/>
-        <v>8028.1502993330087</v>
+        <f t="shared" si="12"/>
+        <v>8028.15029933301</v>
       </c>
       <c r="L87">
-        <f t="shared" si="11"/>
-        <v>-14.150299333008661</v>
+        <f t="shared" si="13"/>
+        <v>-14.1502993330087</v>
       </c>
       <c r="M87">
-        <f t="shared" si="12"/>
-        <v>200.23097121374536</v>
+        <f t="shared" si="14"/>
+        <v>200.230971213745</v>
       </c>
       <c r="N87">
-        <f t="shared" si="13"/>
-        <v>14.150299333008661</v>
+        <f t="shared" si="15"/>
+        <v>14.1502993330087</v>
       </c>
       <c r="O87">
-        <f t="shared" si="14"/>
-        <v>1.7656974460954157E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.00176569744609542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="1">
         <v>40603</v>
       </c>
@@ -5785,53 +6388,53 @@
         <v>9832</v>
       </c>
       <c r="D88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9589</v>
       </c>
       <c r="E88">
-        <f t="shared" si="16"/>
-        <v>9616.7083333333321</v>
+        <f t="shared" si="18"/>
+        <v>9616.70833333333</v>
       </c>
       <c r="F88">
-        <f t="shared" si="17"/>
-        <v>1.0223872513550636</v>
+        <f t="shared" si="19"/>
+        <v>1.02238725135506</v>
       </c>
       <c r="G88">
-        <v>0.98554121296497021</v>
+        <v>0.98554121296497</v>
       </c>
       <c r="H88">
-        <f t="shared" si="9"/>
-        <v>9976.2443930890859</v>
+        <f t="shared" si="11"/>
+        <v>9976.24439308909</v>
       </c>
       <c r="I88">
         <v>87</v>
       </c>
       <c r="J88">
-        <f>$R$21*I88+$R$20</f>
-        <v>9698.629645940644</v>
+        <f t="shared" si="10"/>
+        <v>9698.62964594064</v>
       </c>
       <c r="K88">
-        <f t="shared" si="10"/>
-        <v>9558.3992253583619</v>
+        <f t="shared" si="12"/>
+        <v>9558.39922535836</v>
       </c>
       <c r="L88">
-        <f t="shared" si="11"/>
-        <v>273.60077464163805</v>
+        <f t="shared" si="13"/>
+        <v>273.600774641638</v>
       </c>
       <c r="M88">
-        <f t="shared" si="12"/>
-        <v>74857.383884504408</v>
+        <f t="shared" si="14"/>
+        <v>74857.3838845044</v>
       </c>
       <c r="N88">
-        <f t="shared" si="13"/>
-        <v>273.60077464163805</v>
+        <f t="shared" si="15"/>
+        <v>273.600774641638</v>
       </c>
       <c r="O88">
-        <f t="shared" si="14"/>
-        <v>2.7827580821972953E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.027827580821973</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="1">
         <v>40634</v>
       </c>
@@ -5842,53 +6445,53 @@
         <v>9281</v>
       </c>
       <c r="D89">
-        <f t="shared" si="15"/>
-        <v>9644.4166666666661</v>
+        <f t="shared" si="17"/>
+        <v>9644.41666666667</v>
       </c>
       <c r="E89">
-        <f t="shared" si="16"/>
-        <v>9652.7083333333321</v>
+        <f t="shared" si="18"/>
+        <v>9652.70833333333</v>
       </c>
       <c r="F89">
-        <f t="shared" si="17"/>
-        <v>0.96149180929359213</v>
+        <f t="shared" si="19"/>
+        <v>0.961491809293592</v>
       </c>
       <c r="G89">
-        <v>0.96246611871654009</v>
+        <v>0.96246611871654</v>
       </c>
       <c r="H89">
-        <f t="shared" si="9"/>
-        <v>9642.9368468329285</v>
+        <f t="shared" si="11"/>
+        <v>9642.93684683293</v>
       </c>
       <c r="I89">
         <v>88</v>
       </c>
       <c r="J89">
-        <f>$R$21*I89+$R$20</f>
-        <v>9726.8223575832781</v>
+        <f t="shared" si="10"/>
+        <v>9726.82235758328</v>
       </c>
       <c r="K89">
-        <f t="shared" si="10"/>
-        <v>9361.7369619484434</v>
+        <f t="shared" si="12"/>
+        <v>9361.73696194844</v>
       </c>
       <c r="L89">
-        <f t="shared" si="11"/>
-        <v>-80.736961948443422</v>
+        <f t="shared" si="13"/>
+        <v>-80.7369619484434</v>
       </c>
       <c r="M89">
-        <f t="shared" si="12"/>
-        <v>6518.4570246644007</v>
+        <f t="shared" si="14"/>
+        <v>6518.4570246644</v>
       </c>
       <c r="N89">
-        <f t="shared" si="13"/>
-        <v>80.736961948443422</v>
+        <f t="shared" si="15"/>
+        <v>80.7369619484434</v>
       </c>
       <c r="O89">
-        <f t="shared" si="14"/>
-        <v>8.6991662480813952E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0086991662480814</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="1">
         <v>40664</v>
       </c>
@@ -5899,53 +6502,53 @@
         <v>9967</v>
       </c>
       <c r="D90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9661</v>
       </c>
       <c r="E90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9680.25</v>
       </c>
       <c r="F90">
-        <f t="shared" si="17"/>
-        <v>1.0296221688489451</v>
+        <f t="shared" si="19"/>
+        <v>1.02962216884895</v>
       </c>
       <c r="G90">
-        <v>1.0700925220273949</v>
+        <v>1.07009252202739</v>
       </c>
       <c r="H90">
-        <f t="shared" si="9"/>
-        <v>9314.1478842563483</v>
+        <f t="shared" si="11"/>
+        <v>9314.14788425635</v>
       </c>
       <c r="I90">
         <v>89</v>
       </c>
       <c r="J90">
-        <f>$R$21*I90+$R$20</f>
-        <v>9755.0150692259122</v>
+        <f t="shared" si="10"/>
+        <v>9755.01506922591</v>
       </c>
       <c r="K90">
-        <f t="shared" si="10"/>
-        <v>10438.768677843198</v>
+        <f t="shared" si="12"/>
+        <v>10438.7686778432</v>
       </c>
       <c r="L90">
-        <f t="shared" si="11"/>
-        <v>-471.76867784319802</v>
+        <f t="shared" si="13"/>
+        <v>-471.768677843198</v>
       </c>
       <c r="M90">
-        <f t="shared" si="12"/>
-        <v>222565.68539391915</v>
+        <f t="shared" si="14"/>
+        <v>222565.685393919</v>
       </c>
       <c r="N90">
-        <f t="shared" si="13"/>
-        <v>471.76867784319802</v>
+        <f t="shared" si="15"/>
+        <v>471.768677843198</v>
       </c>
       <c r="O90">
-        <f t="shared" si="14"/>
-        <v>4.7333066905106656E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0473330669051067</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="1">
         <v>40695</v>
       </c>
@@ -5956,53 +6559,53 @@
         <v>11344</v>
       </c>
       <c r="D91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9699.5</v>
       </c>
       <c r="E91">
-        <f t="shared" si="16"/>
-        <v>9700.6666666666679</v>
+        <f t="shared" si="18"/>
+        <v>9700.66666666667</v>
       </c>
       <c r="F91">
-        <f t="shared" si="17"/>
-        <v>1.1694041646622224</v>
+        <f t="shared" si="19"/>
+        <v>1.16940416466222</v>
       </c>
       <c r="G91">
-        <v>1.1274807916790446</v>
+        <v>1.12748079167904</v>
       </c>
       <c r="H91">
-        <f t="shared" si="9"/>
-        <v>10061.368746785045</v>
+        <f t="shared" si="11"/>
+        <v>10061.368746785</v>
       </c>
       <c r="I91">
         <v>90</v>
       </c>
       <c r="J91">
-        <f>$R$21*I91+$R$20</f>
-        <v>9783.2077808685463</v>
+        <f t="shared" si="10"/>
+        <v>9783.20778086855</v>
       </c>
       <c r="K91">
-        <f t="shared" si="10"/>
-        <v>11030.378853934257</v>
+        <f t="shared" si="12"/>
+        <v>11030.3788539343</v>
       </c>
       <c r="L91">
-        <f t="shared" si="11"/>
-        <v>313.62114606574323</v>
+        <f t="shared" si="13"/>
+        <v>313.621146065743</v>
       </c>
       <c r="M91">
-        <f t="shared" si="12"/>
-        <v>98358.223259590246</v>
+        <f t="shared" si="14"/>
+        <v>98358.2232595902</v>
       </c>
       <c r="N91">
-        <f t="shared" si="13"/>
-        <v>313.62114606574323</v>
+        <f t="shared" si="15"/>
+        <v>313.621146065743</v>
       </c>
       <c r="O91">
-        <f t="shared" si="14"/>
-        <v>2.7646433891550002E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.02764643389155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="1">
         <v>40725</v>
       </c>
@@ -6013,53 +6616,53 @@
         <v>9106</v>
       </c>
       <c r="D92">
-        <f t="shared" si="15"/>
-        <v>9701.8333333333339</v>
+        <f t="shared" si="17"/>
+        <v>9701.83333333333</v>
       </c>
       <c r="E92">
-        <f t="shared" si="16"/>
-        <v>9726.2083333333339</v>
+        <f t="shared" si="18"/>
+        <v>9726.20833333333</v>
       </c>
       <c r="F92">
-        <f t="shared" si="17"/>
-        <v>0.93623328720938692</v>
+        <f t="shared" si="19"/>
+        <v>0.936233287209387</v>
       </c>
       <c r="G92">
-        <v>0.9869194631008632</v>
+        <v>0.986919463100863</v>
       </c>
       <c r="H92">
-        <f t="shared" si="9"/>
-        <v>9226.6900597839012</v>
+        <f t="shared" si="11"/>
+        <v>9226.6900597839</v>
       </c>
       <c r="I92">
         <v>91</v>
       </c>
       <c r="J92">
-        <f>$R$21*I92+$R$20</f>
-        <v>9811.4004925111785</v>
+        <f t="shared" si="10"/>
+        <v>9811.40049251118</v>
       </c>
       <c r="K92">
-        <f t="shared" si="10"/>
-        <v>9683.062106336678</v>
+        <f t="shared" si="12"/>
+        <v>9683.06210633668</v>
       </c>
       <c r="L92">
-        <f t="shared" si="11"/>
-        <v>-577.06210633667797</v>
+        <f t="shared" si="13"/>
+        <v>-577.062106336678</v>
       </c>
       <c r="M92">
-        <f t="shared" si="12"/>
-        <v>333000.67456972343</v>
+        <f t="shared" si="14"/>
+        <v>333000.674569723</v>
       </c>
       <c r="N92">
-        <f t="shared" si="13"/>
-        <v>577.06210633667797</v>
+        <f t="shared" si="15"/>
+        <v>577.062106336678</v>
       </c>
       <c r="O92">
-        <f t="shared" si="14"/>
-        <v>6.3371634783294314E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0633716347832943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="1">
         <v>40756</v>
       </c>
@@ -6070,53 +6673,53 @@
         <v>10469</v>
       </c>
       <c r="D93">
-        <f t="shared" si="15"/>
-        <v>9750.5833333333339</v>
+        <f t="shared" si="17"/>
+        <v>9750.58333333333</v>
       </c>
       <c r="E93">
-        <f t="shared" si="16"/>
-        <v>9776.7083333333339</v>
+        <f t="shared" si="18"/>
+        <v>9776.70833333333</v>
       </c>
       <c r="F93">
-        <f t="shared" si="17"/>
-        <v>1.0708103016949297</v>
+        <f t="shared" si="19"/>
+        <v>1.07081030169493</v>
       </c>
       <c r="G93">
-        <v>1.0505245770409877</v>
+        <v>1.05052457704099</v>
       </c>
       <c r="H93">
-        <f t="shared" si="9"/>
-        <v>9965.4974560309947</v>
+        <f t="shared" si="11"/>
+        <v>9965.49745603099</v>
       </c>
       <c r="I93">
         <v>92</v>
       </c>
       <c r="J93">
-        <f>$R$21*I93+$R$20</f>
-        <v>9839.5932041538126</v>
+        <f t="shared" si="10"/>
+        <v>9839.59320415381</v>
       </c>
       <c r="K93">
-        <f t="shared" si="10"/>
-        <v>10336.73448904906</v>
+        <f t="shared" si="12"/>
+        <v>10336.7344890491</v>
       </c>
       <c r="L93">
-        <f t="shared" si="11"/>
-        <v>132.26551095093964</v>
+        <f t="shared" si="13"/>
+        <v>132.26551095094</v>
       </c>
       <c r="M93">
-        <f t="shared" si="12"/>
-        <v>17494.165387113135</v>
+        <f t="shared" si="14"/>
+        <v>17494.1653871131</v>
       </c>
       <c r="N93">
-        <f t="shared" si="13"/>
-        <v>132.26551095093964</v>
+        <f t="shared" si="15"/>
+        <v>132.26551095094</v>
       </c>
       <c r="O93">
-        <f t="shared" si="14"/>
-        <v>1.2634015756131401E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0126340157561314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="1">
         <v>40787</v>
       </c>
@@ -6127,53 +6730,53 @@
         <v>10085</v>
       </c>
       <c r="D94">
-        <f t="shared" si="15"/>
-        <v>9802.8333333333339</v>
+        <f t="shared" si="17"/>
+        <v>9802.83333333333</v>
       </c>
       <c r="E94">
-        <f t="shared" si="16"/>
-        <v>9797.7083333333339</v>
+        <f t="shared" si="18"/>
+        <v>9797.70833333333</v>
       </c>
       <c r="F94">
-        <f t="shared" si="17"/>
-        <v>1.0293223330285568</v>
+        <f t="shared" si="19"/>
+        <v>1.02932233302856</v>
       </c>
       <c r="G94">
-        <v>0.99523185006811066</v>
+        <v>0.995231850068111</v>
       </c>
       <c r="H94">
-        <f t="shared" si="9"/>
-        <v>10133.317175600654</v>
+        <f t="shared" si="11"/>
+        <v>10133.3171756007</v>
       </c>
       <c r="I94">
         <v>93</v>
       </c>
       <c r="J94">
-        <f>$R$21*I94+$R$20</f>
-        <v>9867.7859157964467</v>
+        <f t="shared" si="10"/>
+        <v>9867.78591579645</v>
       </c>
       <c r="K94">
-        <f t="shared" si="10"/>
-        <v>9820.7348330541427</v>
+        <f t="shared" si="12"/>
+        <v>9820.73483305414</v>
       </c>
       <c r="L94">
-        <f t="shared" si="11"/>
-        <v>264.26516694585735</v>
+        <f t="shared" si="13"/>
+        <v>264.265166945857</v>
       </c>
       <c r="M94">
-        <f t="shared" si="12"/>
-        <v>69836.078460921854</v>
+        <f t="shared" si="14"/>
+        <v>69836.0784609219</v>
       </c>
       <c r="N94">
-        <f t="shared" si="13"/>
-        <v>264.26516694585735</v>
+        <f t="shared" si="15"/>
+        <v>264.265166945857</v>
       </c>
       <c r="O94">
-        <f t="shared" si="14"/>
-        <v>2.6203784526113768E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0262037845261138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="1">
         <v>40817</v>
       </c>
@@ -6184,53 +6787,53 @@
         <v>9612</v>
       </c>
       <c r="D95">
-        <f t="shared" si="15"/>
-        <v>9792.5833333333339</v>
+        <f t="shared" si="17"/>
+        <v>9792.58333333333</v>
       </c>
       <c r="E95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9798.5</v>
       </c>
       <c r="F95">
-        <f t="shared" si="17"/>
-        <v>0.98096647446037655</v>
+        <f t="shared" si="19"/>
+        <v>0.980966474460377</v>
       </c>
       <c r="G95">
-        <v>1.0236210272722996</v>
+        <v>1.0236210272723</v>
       </c>
       <c r="H95">
-        <f t="shared" si="9"/>
-        <v>9390.1939720930077</v>
+        <f t="shared" si="11"/>
+        <v>9390.19397209301</v>
       </c>
       <c r="I95">
         <v>94</v>
       </c>
       <c r="J95">
-        <f>$R$21*I95+$R$20</f>
-        <v>9895.9786274390808</v>
+        <f t="shared" si="10"/>
+        <v>9895.97862743908</v>
       </c>
       <c r="K95">
-        <f t="shared" si="10"/>
-        <v>10129.731808483913</v>
+        <f t="shared" si="12"/>
+        <v>10129.7318084839</v>
       </c>
       <c r="L95">
-        <f t="shared" si="11"/>
-        <v>-517.73180848391348</v>
+        <f t="shared" si="13"/>
+        <v>-517.731808483913</v>
       </c>
       <c r="M95">
-        <f t="shared" si="12"/>
-        <v>268046.2255160237</v>
+        <f t="shared" si="14"/>
+        <v>268046.225516024</v>
       </c>
       <c r="N95">
-        <f t="shared" si="13"/>
-        <v>517.73180848391348</v>
+        <f t="shared" si="15"/>
+        <v>517.731808483913</v>
       </c>
       <c r="O95">
-        <f t="shared" si="14"/>
-        <v>5.3863067882221546E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0538630678822215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="1">
         <v>40848</v>
       </c>
@@ -6241,53 +6844,53 @@
         <v>10328</v>
       </c>
       <c r="D96">
-        <f t="shared" si="15"/>
-        <v>9804.4166666666661</v>
+        <f t="shared" si="17"/>
+        <v>9804.41666666667</v>
       </c>
       <c r="E96">
-        <f t="shared" si="16"/>
-        <v>9861.7083333333321</v>
+        <f t="shared" si="18"/>
+        <v>9861.70833333333</v>
       </c>
       <c r="F96">
-        <f t="shared" si="17"/>
-        <v>1.0472830518715066</v>
+        <f t="shared" si="19"/>
+        <v>1.04728305187151</v>
       </c>
       <c r="G96">
-        <v>1.0369421162037697</v>
+        <v>1.03694211620377</v>
       </c>
       <c r="H96">
-        <f t="shared" si="9"/>
-        <v>9960.0545089350417</v>
+        <f t="shared" si="11"/>
+        <v>9960.05450893504</v>
       </c>
       <c r="I96">
         <v>95</v>
       </c>
       <c r="J96">
-        <f>$R$21*I96+$R$20</f>
-        <v>9924.1713390817149</v>
+        <f t="shared" si="10"/>
+        <v>9924.17133908171</v>
       </c>
       <c r="K96">
-        <f t="shared" si="10"/>
-        <v>10290.791229916193</v>
+        <f t="shared" si="12"/>
+        <v>10290.7912299162</v>
       </c>
       <c r="L96">
-        <f t="shared" si="11"/>
-        <v>37.208770083807394</v>
+        <f t="shared" si="13"/>
+        <v>37.2087700838074</v>
       </c>
       <c r="M96">
-        <f t="shared" si="12"/>
-        <v>1384.4925711496401</v>
+        <f t="shared" si="14"/>
+        <v>1384.49257114964</v>
       </c>
       <c r="N96">
-        <f t="shared" si="13"/>
-        <v>37.208770083807394</v>
+        <f t="shared" si="15"/>
+        <v>37.2087700838074</v>
       </c>
       <c r="O96">
-        <f t="shared" si="14"/>
-        <v>3.6027081800743023E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0036027081800743</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1">
         <v>40878</v>
       </c>
@@ -6298,53 +6901,53 @@
         <v>11483</v>
       </c>
       <c r="D97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9919</v>
       </c>
       <c r="E97">
-        <f t="shared" si="16"/>
-        <v>9916.0833333333321</v>
+        <f t="shared" si="18"/>
+        <v>9916.08333333333</v>
       </c>
       <c r="F97">
-        <f t="shared" si="17"/>
-        <v>1.1580176985200812</v>
+        <f t="shared" si="19"/>
+        <v>1.15801769852008</v>
       </c>
       <c r="G97">
-        <v>1.170588850519408</v>
+        <v>1.17058885051941</v>
       </c>
       <c r="H97">
-        <f t="shared" si="9"/>
-        <v>9809.5928343284831</v>
+        <f t="shared" si="11"/>
+        <v>9809.59283432848</v>
       </c>
       <c r="I97">
         <v>96</v>
       </c>
       <c r="J97">
-        <f>$R$21*I97+$R$20</f>
-        <v>9952.3640507243472</v>
+        <f t="shared" si="10"/>
+        <v>9952.36405072435</v>
       </c>
       <c r="K97">
-        <f t="shared" si="10"/>
-        <v>11650.126394088093</v>
+        <f t="shared" si="12"/>
+        <v>11650.1263940881</v>
       </c>
       <c r="L97">
-        <f t="shared" si="11"/>
-        <v>-167.12639408809264</v>
+        <f t="shared" si="13"/>
+        <v>-167.126394088093</v>
       </c>
       <c r="M97">
-        <f t="shared" si="12"/>
-        <v>27931.231600888445</v>
+        <f t="shared" si="14"/>
+        <v>27931.2316008884</v>
       </c>
       <c r="N97">
-        <f t="shared" si="13"/>
-        <v>167.12639408809264</v>
+        <f t="shared" si="15"/>
+        <v>167.126394088093</v>
       </c>
       <c r="O97">
-        <f t="shared" si="14"/>
-        <v>1.4554244891412752E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0145542448914128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1">
         <v>40909</v>
       </c>
@@ -6355,53 +6958,53 @@
         <v>7486</v>
       </c>
       <c r="D98">
-        <f t="shared" si="15"/>
-        <v>9913.1666666666661</v>
+        <f t="shared" si="17"/>
+        <v>9913.16666666667</v>
       </c>
       <c r="E98">
-        <f t="shared" si="16"/>
-        <v>9943.9583333333321</v>
+        <f t="shared" si="18"/>
+        <v>9943.95833333333</v>
       </c>
       <c r="F98">
-        <f t="shared" si="17"/>
-        <v>0.75281892271270257</v>
+        <f t="shared" si="19"/>
+        <v>0.752818922712703</v>
       </c>
       <c r="G98">
-        <v>0.76041695462442593</v>
+        <v>0.760416954624426</v>
       </c>
       <c r="H98">
-        <f t="shared" si="9"/>
-        <v>9844.5990117321562</v>
+        <f t="shared" si="11"/>
+        <v>9844.59901173216</v>
       </c>
       <c r="I98">
         <v>97</v>
       </c>
       <c r="J98">
-        <f>$R$21*I98+$R$20</f>
-        <v>9980.5567623669813</v>
+        <f t="shared" si="10"/>
+        <v>9980.55676236698</v>
       </c>
       <c r="K98">
-        <f t="shared" si="10"/>
-        <v>7589.3845786953198</v>
+        <f t="shared" si="12"/>
+        <v>7589.38457869532</v>
       </c>
       <c r="L98">
-        <f t="shared" si="11"/>
-        <v>-103.38457869531976</v>
+        <f t="shared" si="13"/>
+        <v>-103.38457869532</v>
       </c>
       <c r="M98">
-        <f t="shared" si="12"/>
-        <v>10688.371112008765</v>
+        <f t="shared" si="14"/>
+        <v>10688.3711120088</v>
       </c>
       <c r="N98">
-        <f t="shared" si="13"/>
-        <v>103.38457869531976</v>
+        <f t="shared" si="15"/>
+        <v>103.38457869532</v>
       </c>
       <c r="O98">
-        <f t="shared" si="14"/>
-        <v>1.3810389887165344E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0138103898871653</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1">
         <v>40940</v>
       </c>
@@ -6412,53 +7015,53 @@
         <v>8641</v>
       </c>
       <c r="D99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9974.75</v>
       </c>
       <c r="E99">
-        <f t="shared" si="16"/>
-        <v>10003.666666666668</v>
+        <f t="shared" si="18"/>
+        <v>10003.6666666667</v>
       </c>
       <c r="F99">
-        <f t="shared" si="17"/>
-        <v>0.86378327946419631</v>
+        <f t="shared" si="19"/>
+        <v>0.863783279464196</v>
       </c>
       <c r="G99">
-        <v>0.83017451578218504</v>
+        <v>0.830174515782185</v>
       </c>
       <c r="H99">
-        <f t="shared" si="9"/>
-        <v>10408.654849948634</v>
+        <f t="shared" si="11"/>
+        <v>10408.6548499486</v>
       </c>
       <c r="I99">
         <v>98</v>
       </c>
       <c r="J99">
-        <f>$R$21*I99+$R$20</f>
-        <v>10008.749474009615</v>
+        <f t="shared" si="10"/>
+        <v>10008.7494740096</v>
       </c>
       <c r="K99">
-        <f t="shared" si="10"/>
-        <v>8309.0087481711325</v>
+        <f t="shared" si="12"/>
+        <v>8309.00874817113</v>
       </c>
       <c r="L99">
-        <f t="shared" si="11"/>
-        <v>331.99125182886746</v>
+        <f t="shared" si="13"/>
+        <v>331.991251828867</v>
       </c>
       <c r="M99">
-        <f t="shared" si="12"/>
-        <v>110218.1912908985</v>
+        <f t="shared" si="14"/>
+        <v>110218.191290898</v>
       </c>
       <c r="N99">
-        <f t="shared" si="13"/>
-        <v>331.99125182886746</v>
+        <f t="shared" si="15"/>
+        <v>331.991251828867</v>
       </c>
       <c r="O99">
-        <f t="shared" si="14"/>
-        <v>3.8420466592855855E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0384204665928559</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1">
         <v>40969</v>
       </c>
@@ -6469,53 +7072,53 @@
         <v>9709</v>
       </c>
       <c r="D100">
-        <f t="shared" si="15"/>
-        <v>10032.583333333334</v>
+        <f t="shared" si="17"/>
+        <v>10032.5833333333</v>
       </c>
       <c r="E100">
-        <f t="shared" si="16"/>
-        <v>10009.541666666668</v>
+        <f t="shared" si="18"/>
+        <v>10009.5416666667</v>
       </c>
       <c r="F100">
-        <f t="shared" si="17"/>
-        <v>0.96997448268110831</v>
+        <f t="shared" si="19"/>
+        <v>0.969974482681108</v>
       </c>
       <c r="G100">
-        <v>0.98554121296497021</v>
+        <v>0.98554121296497</v>
       </c>
       <c r="H100">
-        <f t="shared" si="9"/>
-        <v>9851.4398710844107</v>
+        <f t="shared" si="11"/>
+        <v>9851.43987108441</v>
       </c>
       <c r="I100">
         <v>99</v>
       </c>
       <c r="J100">
-        <f>$R$21*I100+$R$20</f>
-        <v>10036.942185652249</v>
+        <f t="shared" si="10"/>
+        <v>10036.9421856522</v>
       </c>
       <c r="K100">
-        <f t="shared" si="10"/>
-        <v>9891.8201761069977</v>
+        <f t="shared" si="12"/>
+        <v>9891.820176107</v>
       </c>
       <c r="L100">
-        <f t="shared" si="11"/>
-        <v>-182.82017610699768</v>
+        <f t="shared" si="13"/>
+        <v>-182.820176106998</v>
       </c>
       <c r="M100">
-        <f t="shared" si="12"/>
-        <v>33423.216791793646</v>
+        <f t="shared" si="14"/>
+        <v>33423.2167917936</v>
       </c>
       <c r="N100">
-        <f t="shared" si="13"/>
-        <v>182.82017610699768</v>
+        <f t="shared" si="15"/>
+        <v>182.820176106998</v>
       </c>
       <c r="O100">
-        <f t="shared" si="14"/>
-        <v>1.8829969729838057E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0188299697298381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1">
         <v>41000</v>
       </c>
@@ -6526,53 +7129,53 @@
         <v>9423</v>
       </c>
       <c r="D101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9986.5</v>
       </c>
       <c r="E101">
-        <f t="shared" si="16"/>
-        <v>10034.083333333332</v>
+        <f t="shared" si="18"/>
+        <v>10034.0833333333</v>
       </c>
       <c r="F101">
-        <f t="shared" si="17"/>
-        <v>0.93909923676801577</v>
+        <f t="shared" si="19"/>
+        <v>0.939099236768016</v>
       </c>
       <c r="G101">
-        <v>0.96246611871654009</v>
+        <v>0.96246611871654</v>
       </c>
       <c r="H101">
-        <f t="shared" si="9"/>
-        <v>9790.4745078878022</v>
+        <f t="shared" si="11"/>
+        <v>9790.4745078878</v>
       </c>
       <c r="I101">
         <v>100</v>
       </c>
       <c r="J101">
-        <f>$R$21*I101+$R$20</f>
-        <v>10065.134897294884</v>
+        <f t="shared" si="10"/>
+        <v>10065.1348972949</v>
       </c>
       <c r="K101">
-        <f t="shared" si="10"/>
-        <v>9687.351318957808</v>
+        <f t="shared" si="12"/>
+        <v>9687.35131895781</v>
       </c>
       <c r="L101">
-        <f t="shared" si="11"/>
-        <v>-264.35131895780796</v>
+        <f t="shared" si="13"/>
+        <v>-264.351318957808</v>
       </c>
       <c r="M101">
-        <f t="shared" si="12"/>
-        <v>69881.619834732715</v>
+        <f t="shared" si="14"/>
+        <v>69881.6198347327</v>
       </c>
       <c r="N101">
-        <f t="shared" si="13"/>
-        <v>264.35131895780796</v>
+        <f t="shared" si="15"/>
+        <v>264.351318957808</v>
       </c>
       <c r="O101">
-        <f t="shared" si="14"/>
-        <v>2.8053838369713251E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0280538383697133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1">
         <v>41030</v>
       </c>
@@ -6583,53 +7186,53 @@
         <v>11342</v>
       </c>
       <c r="D102">
-        <f t="shared" si="15"/>
-        <v>10081.666666666666</v>
+        <f t="shared" si="17"/>
+        <v>10081.6666666667</v>
       </c>
       <c r="E102">
-        <f t="shared" si="16"/>
-        <v>10107.708333333332</v>
+        <f t="shared" si="18"/>
+        <v>10107.7083333333</v>
       </c>
       <c r="F102">
-        <f t="shared" si="17"/>
-        <v>1.1221138982212422</v>
+        <f t="shared" si="19"/>
+        <v>1.12211389822124</v>
       </c>
       <c r="G102">
-        <v>1.0700925220273949</v>
+        <v>1.07009252202739</v>
       </c>
       <c r="H102">
-        <f t="shared" si="9"/>
-        <v>10599.083505892997</v>
+        <f t="shared" si="11"/>
+        <v>10599.083505893</v>
       </c>
       <c r="I102">
         <v>101</v>
       </c>
       <c r="J102">
-        <f>$R$21*I102+$R$20</f>
-        <v>10093.327608937518</v>
+        <f t="shared" si="10"/>
+        <v>10093.3276089375</v>
       </c>
       <c r="K102">
-        <f t="shared" si="10"/>
-        <v>10800.794396696683</v>
+        <f t="shared" si="12"/>
+        <v>10800.7943966967</v>
       </c>
       <c r="L102">
-        <f t="shared" si="11"/>
-        <v>541.20560330331682</v>
+        <f t="shared" si="13"/>
+        <v>541.205603303317</v>
       </c>
       <c r="M102">
-        <f t="shared" si="12"/>
-        <v>292903.50504690711</v>
+        <f t="shared" si="14"/>
+        <v>292903.505046907</v>
       </c>
       <c r="N102">
-        <f t="shared" si="13"/>
-        <v>541.20560330331682</v>
+        <f t="shared" si="15"/>
+        <v>541.205603303317</v>
       </c>
       <c r="O102">
-        <f t="shared" si="14"/>
-        <v>4.7716946156173237E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0477169461561732</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1">
         <v>41061</v>
       </c>
@@ -6640,53 +7243,53 @@
         <v>11274</v>
       </c>
       <c r="D103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10133.75</v>
       </c>
       <c r="E103">
-        <f t="shared" si="16"/>
-        <v>10152.041666666668</v>
+        <f t="shared" si="18"/>
+        <v>10152.0416666667</v>
       </c>
       <c r="F103">
-        <f t="shared" si="17"/>
-        <v>1.1105155366941788</v>
+        <f t="shared" si="19"/>
+        <v>1.11051553669418</v>
       </c>
       <c r="G103">
-        <v>1.1274807916790446</v>
+        <v>1.12748079167904</v>
       </c>
       <c r="H103">
-        <f t="shared" si="9"/>
-        <v>9999.2834318806945</v>
+        <f t="shared" si="11"/>
+        <v>9999.28343188069</v>
       </c>
       <c r="I103">
         <v>102</v>
       </c>
       <c r="J103">
-        <f>$R$21*I103+$R$20</f>
-        <v>10121.520320580152</v>
+        <f t="shared" si="10"/>
+        <v>10121.5203205802</v>
       </c>
       <c r="K103">
-        <f t="shared" si="10"/>
-        <v>11411.819744043247</v>
+        <f t="shared" si="12"/>
+        <v>11411.8197440432</v>
       </c>
       <c r="L103">
-        <f t="shared" si="11"/>
-        <v>-137.81974404324683</v>
+        <f t="shared" si="13"/>
+        <v>-137.819744043247</v>
       </c>
       <c r="M103">
-        <f t="shared" si="12"/>
-        <v>18994.281848146071</v>
+        <f t="shared" si="14"/>
+        <v>18994.2818481461</v>
       </c>
       <c r="N103">
-        <f t="shared" si="13"/>
-        <v>137.81974404324683</v>
+        <f t="shared" si="15"/>
+        <v>137.819744043247</v>
       </c>
       <c r="O103">
-        <f t="shared" si="14"/>
-        <v>1.2224564843289589E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0122245648432896</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1">
         <v>41091</v>
       </c>
@@ -6697,53 +7300,53 @@
         <v>9845</v>
       </c>
       <c r="D104">
-        <f t="shared" si="15"/>
-        <v>10170.333333333334</v>
+        <f t="shared" si="17"/>
+        <v>10170.3333333333</v>
       </c>
       <c r="E104">
         <f>(D104+D105)/1</f>
-        <v>10170.333333333334</v>
+        <v>10170.3333333333</v>
       </c>
       <c r="F104">
-        <f t="shared" si="17"/>
-        <v>0.96801153682278518</v>
+        <f t="shared" si="19"/>
+        <v>0.968011536822785</v>
       </c>
       <c r="G104">
-        <v>0.9869194631008632</v>
+        <v>0.986919463100863</v>
       </c>
       <c r="H104">
-        <f t="shared" si="9"/>
-        <v>9975.4846956482015</v>
+        <f t="shared" si="11"/>
+        <v>9975.4846956482</v>
       </c>
       <c r="I104">
         <v>103</v>
       </c>
       <c r="J104">
-        <f>$R$21*I104+$R$20</f>
-        <v>10149.713032222786</v>
+        <f t="shared" si="10"/>
+        <v>10149.7130322228</v>
       </c>
       <c r="K104">
-        <f t="shared" si="10"/>
-        <v>10016.949336389145</v>
+        <f t="shared" si="12"/>
+        <v>10016.9493363891</v>
       </c>
       <c r="L104">
-        <f t="shared" si="11"/>
-        <v>-171.94933638914517</v>
+        <f t="shared" si="13"/>
+        <v>-171.949336389145</v>
       </c>
       <c r="M104">
-        <f t="shared" si="12"/>
-        <v>29566.574284667404</v>
+        <f t="shared" si="14"/>
+        <v>29566.5742846674</v>
       </c>
       <c r="N104">
-        <f t="shared" si="13"/>
-        <v>171.94933638914517</v>
+        <f t="shared" si="15"/>
+        <v>171.949336389145</v>
       </c>
       <c r="O104">
-        <f t="shared" si="14"/>
-        <v>1.7465651233026427E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0174656512330264</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1">
         <v>41122</v>
       </c>
@@ -6754,41 +7357,41 @@
         <v>11163</v>
       </c>
       <c r="G105">
-        <v>1.0505245770409877</v>
+        <v>1.05052457704099</v>
       </c>
       <c r="H105">
-        <f t="shared" si="9"/>
-        <v>10626.119791926067</v>
+        <f t="shared" si="11"/>
+        <v>10626.1197919261</v>
       </c>
       <c r="I105">
         <v>104</v>
       </c>
       <c r="J105">
-        <f>$R$21*I105+$R$20</f>
-        <v>10177.905743865418</v>
+        <f t="shared" si="10"/>
+        <v>10177.9057438654</v>
       </c>
       <c r="K105">
-        <f t="shared" si="10"/>
-        <v>10692.140126737257</v>
+        <f t="shared" si="12"/>
+        <v>10692.1401267373</v>
       </c>
       <c r="L105">
-        <f t="shared" si="11"/>
-        <v>470.85987326274335</v>
+        <f t="shared" si="13"/>
+        <v>470.859873262743</v>
       </c>
       <c r="M105">
-        <f t="shared" si="12"/>
-        <v>221709.02024900672</v>
+        <f t="shared" si="14"/>
+        <v>221709.020249007</v>
       </c>
       <c r="N105">
-        <f t="shared" si="13"/>
-        <v>470.85987326274335</v>
+        <f t="shared" si="15"/>
+        <v>470.859873262743</v>
       </c>
       <c r="O105">
-        <f t="shared" si="14"/>
-        <v>4.21804060971731E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0421804060971731</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1">
         <v>41153</v>
       </c>
@@ -6799,41 +7402,41 @@
         <v>9532</v>
       </c>
       <c r="G106">
-        <v>0.99523185006811066</v>
+        <v>0.995231850068111</v>
       </c>
       <c r="H106">
-        <f t="shared" si="9"/>
-        <v>9577.6677558577521</v>
+        <f t="shared" si="11"/>
+        <v>9577.66775585775</v>
       </c>
       <c r="I106">
         <v>105</v>
       </c>
       <c r="J106">
-        <f>$R$21*I106+$R$20</f>
-        <v>10206.098455508052</v>
+        <f t="shared" si="10"/>
+        <v>10206.0984555081</v>
       </c>
       <c r="K106">
-        <f t="shared" si="10"/>
-        <v>10157.434247852565</v>
+        <f t="shared" si="12"/>
+        <v>10157.4342478526</v>
       </c>
       <c r="L106">
-        <f t="shared" si="11"/>
-        <v>-625.43424785256502</v>
+        <f t="shared" si="13"/>
+        <v>-625.434247852565</v>
       </c>
       <c r="M106">
-        <f t="shared" si="12"/>
-        <v>391167.99838690372</v>
+        <f t="shared" si="14"/>
+        <v>391167.998386904</v>
       </c>
       <c r="N106">
-        <f t="shared" si="13"/>
-        <v>625.43424785256502</v>
+        <f t="shared" si="15"/>
+        <v>625.434247852565</v>
       </c>
       <c r="O106">
-        <f t="shared" si="14"/>
-        <v>6.5614167840176776E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0656141678401768</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1">
         <v>41183</v>
       </c>
@@ -6844,41 +7447,41 @@
         <v>10754</v>
       </c>
       <c r="G107">
-        <v>1.0236210272722996</v>
+        <v>1.0236210272723</v>
       </c>
       <c r="H107">
-        <f t="shared" si="9"/>
-        <v>10505.84123760801</v>
+        <f t="shared" si="11"/>
+        <v>10505.841237608</v>
       </c>
       <c r="I107">
         <v>106</v>
       </c>
       <c r="J107">
-        <f>$R$21*I107+$R$20</f>
-        <v>10234.291167150686</v>
+        <f t="shared" si="10"/>
+        <v>10234.2911671507</v>
       </c>
       <c r="K107">
-        <f t="shared" si="10"/>
-        <v>10476.035637922609</v>
+        <f t="shared" si="12"/>
+        <v>10476.0356379226</v>
       </c>
       <c r="L107">
-        <f t="shared" si="11"/>
-        <v>277.96436207739134</v>
+        <f t="shared" si="13"/>
+        <v>277.964362077391</v>
       </c>
       <c r="M107">
-        <f t="shared" si="12"/>
-        <v>77264.186585091113</v>
+        <f t="shared" si="14"/>
+        <v>77264.1865850911</v>
       </c>
       <c r="N107">
-        <f t="shared" si="13"/>
-        <v>277.96436207739134</v>
+        <f t="shared" si="15"/>
+        <v>277.964362077391</v>
       </c>
       <c r="O107">
-        <f t="shared" si="14"/>
-        <v>2.5847532274259934E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0258475322742599</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1">
         <v>41214</v>
       </c>
@@ -6889,41 +7492,41 @@
         <v>10953</v>
       </c>
       <c r="G108">
-        <v>1.0369421162037697</v>
+        <v>1.03694211620377</v>
       </c>
       <c r="H108">
-        <f t="shared" si="9"/>
-        <v>10562.788249067147</v>
+        <f t="shared" si="11"/>
+        <v>10562.7882490671</v>
       </c>
       <c r="I108">
         <v>107</v>
       </c>
       <c r="J108">
-        <f>$R$21*I108+$R$20</f>
-        <v>10262.48387879332</v>
+        <f t="shared" si="10"/>
+        <v>10262.4838787933</v>
       </c>
       <c r="K108">
-        <f t="shared" si="10"/>
-        <v>10641.601750783017</v>
+        <f t="shared" si="12"/>
+        <v>10641.601750783</v>
       </c>
       <c r="L108">
-        <f t="shared" si="11"/>
-        <v>311.39824921698346</v>
+        <f t="shared" si="13"/>
+        <v>311.398249216983</v>
       </c>
       <c r="M108">
-        <f t="shared" si="12"/>
-        <v>96968.869615402538</v>
+        <f t="shared" si="14"/>
+        <v>96968.8696154025</v>
       </c>
       <c r="N108">
-        <f t="shared" si="13"/>
-        <v>311.39824921698346</v>
+        <f t="shared" si="15"/>
+        <v>311.398249216983</v>
       </c>
       <c r="O108">
-        <f t="shared" si="14"/>
-        <v>2.8430407122887195E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0284304071228872</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1">
         <v>41244</v>
       </c>
@@ -6934,68 +7537,68 @@
         <v>11922</v>
       </c>
       <c r="G109">
-        <v>1.170588850519408</v>
+        <v>1.17058885051941</v>
       </c>
       <c r="H109">
-        <f t="shared" si="9"/>
-        <v>10184.617762855018</v>
+        <f t="shared" si="11"/>
+        <v>10184.617762855</v>
       </c>
       <c r="I109">
         <v>108</v>
       </c>
       <c r="J109">
-        <f>$R$21*I109+$R$20</f>
-        <v>10290.676590435954</v>
+        <f t="shared" si="10"/>
+        <v>10290.676590436</v>
       </c>
       <c r="K109">
-        <f t="shared" si="10"/>
-        <v>12046.151281065404</v>
+        <f t="shared" si="12"/>
+        <v>12046.1512810654</v>
       </c>
       <c r="L109">
-        <f t="shared" si="11"/>
-        <v>-124.15128106540396</v>
+        <f t="shared" si="13"/>
+        <v>-124.151281065404</v>
       </c>
       <c r="M109">
-        <f t="shared" si="12"/>
-        <v>15413.540590180934</v>
+        <f t="shared" si="14"/>
+        <v>15413.5405901809</v>
       </c>
       <c r="N109">
-        <f t="shared" si="13"/>
-        <v>124.15128106540396</v>
+        <f t="shared" si="15"/>
+        <v>124.151281065404</v>
       </c>
       <c r="O109">
-        <f t="shared" si="14"/>
-        <v>1.0413628675172284E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0.0104136286751723</v>
+      </c>
+    </row>
+    <row r="110" spans="13:15">
       <c r="M110">
         <f>AVERAGE(M2:M109)</f>
-        <v>131835.7161451194</v>
+        <v>131835.716145119</v>
       </c>
       <c r="N110">
         <f>AVERAGE(N2:N109)</f>
-        <v>293.93750414820414</v>
+        <v>293.937504148204</v>
       </c>
       <c r="O110">
         <f>AVERAGE(O2:O109)</f>
-        <v>3.3636547742293188E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.0336365477422932</v>
+      </c>
+    </row>
+    <row r="111" spans="13:15">
       <c r="M111" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O111" s="7" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>